--- a/opm_hero_property/heroes/89.xlsx
+++ b/opm_hero_property/heroes/89.xlsx
@@ -14,6 +14,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="talent" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mechanical" sheetId="6" state="visible" r:id="rId6"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="limiter" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="status" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1197,7 +1198,7 @@
         <v>11165</v>
       </c>
       <c r="D4" t="n">
-        <v>11165</v>
+        <v>11709</v>
       </c>
       <c r="E4" t="n">
         <v>225</v>
@@ -1304,7 +1305,7 @@
         <v>12486</v>
       </c>
       <c r="D5" t="n">
-        <v>12486</v>
+        <v>13645</v>
       </c>
       <c r="E5" t="n">
         <v>338</v>
@@ -1411,7 +1412,7 @@
         <v>14040</v>
       </c>
       <c r="D6" t="n">
-        <v>14040</v>
+        <v>15924</v>
       </c>
       <c r="E6" t="n">
         <v>463</v>
@@ -1518,7 +1519,7 @@
         <v>15826</v>
       </c>
       <c r="D7" t="n">
-        <v>15826</v>
+        <v>20679</v>
       </c>
       <c r="E7" t="n">
         <v>868</v>
@@ -1625,7 +1626,7 @@
         <v>17846</v>
       </c>
       <c r="D8" t="n">
-        <v>17846</v>
+        <v>27258</v>
       </c>
       <c r="E8" t="n">
         <v>1286</v>
@@ -1732,7 +1733,7 @@
         <v>20177</v>
       </c>
       <c r="D9" t="n">
-        <v>20177</v>
+        <v>36115</v>
       </c>
       <c r="E9" t="n">
         <v>1698</v>
@@ -1839,7 +1840,7 @@
         <v>21420</v>
       </c>
       <c r="D10" t="n">
-        <v>21420</v>
+        <v>43491</v>
       </c>
       <c r="E10" t="n">
         <v>2006</v>
@@ -1946,7 +1947,7 @@
         <v>22896</v>
       </c>
       <c r="D11" t="n">
-        <v>22896</v>
+        <v>52547</v>
       </c>
       <c r="E11" t="n">
         <v>2341</v>
@@ -2053,7 +2054,7 @@
         <v>26003</v>
       </c>
       <c r="D12" t="n">
-        <v>26003</v>
+        <v>68665</v>
       </c>
       <c r="E12" t="n">
         <v>2881</v>
@@ -2160,7 +2161,7 @@
         <v>26625</v>
       </c>
       <c r="D13" t="n">
-        <v>26625</v>
+        <v>70944</v>
       </c>
       <c r="E13" t="n">
         <v>3241</v>
@@ -2267,7 +2268,7 @@
         <v>27246</v>
       </c>
       <c r="D14" t="n">
-        <v>27246</v>
+        <v>73222</v>
       </c>
       <c r="E14" t="n">
         <v>3601</v>
@@ -2374,7 +2375,7 @@
         <v>27868</v>
       </c>
       <c r="D15" t="n">
-        <v>27868</v>
+        <v>75500</v>
       </c>
       <c r="E15" t="n">
         <v>3961</v>
@@ -2481,7 +2482,7 @@
         <v>28489</v>
       </c>
       <c r="D16" t="n">
-        <v>28489</v>
+        <v>77779</v>
       </c>
       <c r="E16" t="n">
         <v>4322</v>
@@ -2588,7 +2589,7 @@
         <v>29111</v>
       </c>
       <c r="D17" t="n">
-        <v>29111</v>
+        <v>80057</v>
       </c>
       <c r="E17" t="n">
         <v>4682</v>
@@ -6534,4 +6535,2652 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AK23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>战斗类型</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>品质</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>pve等级</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>等级强化</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>装备品质%</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>装备强化%</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>天赋</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>研究所核心</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>职阶</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>限制器</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>机械核心</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>HeroId</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Quality</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Level</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>EnhancePeriod</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Equips</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>TalentLevel</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>Skills</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>hp</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>atk</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>def</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>crit</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>crit_res</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>crit_dmg</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>precise</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>parry</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>dmg_res</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t>fury</t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t>show_level</t>
+        </is>
+      </c>
+      <c r="AE1" t="inlineStr">
+        <is>
+          <t>chase</t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
+        <is>
+          <t>academy</t>
+        </is>
+      </c>
+      <c r="AG1" t="inlineStr">
+        <is>
+          <t>job</t>
+        </is>
+      </c>
+      <c r="AH1" t="inlineStr">
+        <is>
+          <t>limiter</t>
+        </is>
+      </c>
+      <c r="AI1" t="inlineStr">
+        <is>
+          <t>mechanical</t>
+        </is>
+      </c>
+      <c r="AJ1" t="inlineStr">
+        <is>
+          <t>aura</t>
+        </is>
+      </c>
+      <c r="AK1" t="inlineStr">
+        <is>
+          <t>type_aura</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>81</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>89</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" t="n">
+        <v>5</v>
+      </c>
+      <c r="O2" t="n">
+        <v>81</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>3,2,1,1,0,0,0,0,0</t>
+        </is>
+      </c>
+      <c r="T2" t="n">
+        <v>35885.6298192</v>
+      </c>
+      <c r="U2" t="n">
+        <v>4213.343468</v>
+      </c>
+      <c r="V2" t="n">
+        <v>2512.3764</v>
+      </c>
+      <c r="W2" t="n">
+        <v>1900</v>
+      </c>
+      <c r="X2" t="n">
+        <v>400</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>400</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>1600</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>81</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ2" t="inlineStr"/>
+      <c r="AK2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C3" t="n">
+        <v>121</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>7</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>89</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="n">
+        <v>7</v>
+      </c>
+      <c r="O3" t="n">
+        <v>121</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>3,2,2,2,0,0,0,0,0</t>
+        </is>
+      </c>
+      <c r="T3" t="n">
+        <v>48576.5086716</v>
+      </c>
+      <c r="U3" t="n">
+        <v>6455.9735468</v>
+      </c>
+      <c r="V3" t="n">
+        <v>3614.546</v>
+      </c>
+      <c r="W3" t="n">
+        <v>1900</v>
+      </c>
+      <c r="X3" t="n">
+        <v>400</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>400</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>1600</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>121</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" t="inlineStr"/>
+      <c r="AK3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>9</v>
+      </c>
+      <c r="C4" t="n">
+        <v>161</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>9</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>15</v>
+      </c>
+      <c r="I4" t="n">
+        <v>4</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>89</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="n">
+        <v>9</v>
+      </c>
+      <c r="O4" t="n">
+        <v>161</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>4,3,2,2,0,0,0,0,0</t>
+        </is>
+      </c>
+      <c r="T4" t="n">
+        <v>83668.2350416</v>
+      </c>
+      <c r="U4" t="n">
+        <v>12061.5285</v>
+      </c>
+      <c r="V4" t="n">
+        <v>7262.298</v>
+      </c>
+      <c r="W4" t="n">
+        <v>1900</v>
+      </c>
+      <c r="X4" t="n">
+        <v>400</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>400</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>1600</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>161</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ4" t="inlineStr"/>
+      <c r="AK4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>9</v>
+      </c>
+      <c r="C5" t="n">
+        <v>161</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>9</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>15</v>
+      </c>
+      <c r="I5" t="n">
+        <v>5</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>89</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="n">
+        <v>9</v>
+      </c>
+      <c r="O5" t="n">
+        <v>161</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>4,3,2,2,0,1,0,0,1</t>
+        </is>
+      </c>
+      <c r="T5" t="n">
+        <v>83668.2350416</v>
+      </c>
+      <c r="U5" t="n">
+        <v>12061.5285</v>
+      </c>
+      <c r="V5" t="n">
+        <v>7262.298</v>
+      </c>
+      <c r="W5" t="n">
+        <v>1980</v>
+      </c>
+      <c r="X5" t="n">
+        <v>400</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>400</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>1660</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>161</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ5" t="inlineStr"/>
+      <c r="AK5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>9</v>
+      </c>
+      <c r="C6" t="n">
+        <v>161</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>9</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>15</v>
+      </c>
+      <c r="I6" t="n">
+        <v>5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>89</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="n">
+        <v>9</v>
+      </c>
+      <c r="O6" t="n">
+        <v>161</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>4,3,2,2,1,1,0,0,2</t>
+        </is>
+      </c>
+      <c r="T6" t="n">
+        <v>70576.9780336</v>
+      </c>
+      <c r="U6" t="n">
+        <v>11361.8235</v>
+      </c>
+      <c r="V6" t="n">
+        <v>7262.298</v>
+      </c>
+      <c r="W6" t="n">
+        <v>1380</v>
+      </c>
+      <c r="X6" t="n">
+        <v>400</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>400</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>1660</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>161</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ6" t="inlineStr"/>
+      <c r="AK6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>11</v>
+      </c>
+      <c r="C7" t="n">
+        <v>240</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>10</v>
+      </c>
+      <c r="F7" t="n">
+        <v>5</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>25</v>
+      </c>
+      <c r="I7" t="n">
+        <v>15</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>89</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="n">
+        <v>11</v>
+      </c>
+      <c r="O7" t="n">
+        <v>240</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>5,3,3,3,0,2,1,0,0</t>
+        </is>
+      </c>
+      <c r="T7" t="n">
+        <v>295158.4738512</v>
+      </c>
+      <c r="U7" t="n">
+        <v>43596.806784</v>
+      </c>
+      <c r="V7" t="n">
+        <v>30572.2155</v>
+      </c>
+      <c r="W7" t="n">
+        <v>2780</v>
+      </c>
+      <c r="X7" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>3060</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>1800</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ7" t="inlineStr"/>
+      <c r="AK7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>11</v>
+      </c>
+      <c r="C8" t="n">
+        <v>240</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>10</v>
+      </c>
+      <c r="F8" t="n">
+        <v>5</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>25</v>
+      </c>
+      <c r="I8" t="n">
+        <v>15</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>89</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" t="n">
+        <v>11</v>
+      </c>
+      <c r="O8" t="n">
+        <v>240</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>5,3,3,3,1,2,1,0,1</t>
+        </is>
+      </c>
+      <c r="T8" t="n">
+        <v>236172.4019952</v>
+      </c>
+      <c r="U8" t="n">
+        <v>40640.820864</v>
+      </c>
+      <c r="V8" t="n">
+        <v>30572.2155</v>
+      </c>
+      <c r="W8" t="n">
+        <v>2180</v>
+      </c>
+      <c r="X8" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>3060</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>1800</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ8" t="inlineStr"/>
+      <c r="AK8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>11</v>
+      </c>
+      <c r="C9" t="n">
+        <v>240</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>10</v>
+      </c>
+      <c r="F9" t="n">
+        <v>5</v>
+      </c>
+      <c r="G9" t="n">
+        <v>10</v>
+      </c>
+      <c r="H9" t="n">
+        <v>25</v>
+      </c>
+      <c r="I9" t="n">
+        <v>15</v>
+      </c>
+      <c r="J9" t="n">
+        <v>5</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>89</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="n">
+        <v>11</v>
+      </c>
+      <c r="O9" t="n">
+        <v>240</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="n">
+        <v>10</v>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>5,3,3,3,2,2,1,0,5</t>
+        </is>
+      </c>
+      <c r="T9" t="n">
+        <v>255834.4259472</v>
+      </c>
+      <c r="U9" t="n">
+        <v>41626.149504</v>
+      </c>
+      <c r="V9" t="n">
+        <v>30572.2155</v>
+      </c>
+      <c r="W9" t="n">
+        <v>2380</v>
+      </c>
+      <c r="X9" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>3060</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>1800</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" t="inlineStr"/>
+      <c r="AK9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>11</v>
+      </c>
+      <c r="C10" t="n">
+        <v>240</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>10</v>
+      </c>
+      <c r="F10" t="n">
+        <v>5</v>
+      </c>
+      <c r="G10" t="n">
+        <v>20</v>
+      </c>
+      <c r="H10" t="n">
+        <v>25</v>
+      </c>
+      <c r="I10" t="n">
+        <v>15</v>
+      </c>
+      <c r="J10" t="n">
+        <v>5</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>89</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="n">
+        <v>11</v>
+      </c>
+      <c r="O10" t="n">
+        <v>240</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="n">
+        <v>20</v>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>5,3,3,3,3,2,1,0,5</t>
+        </is>
+      </c>
+      <c r="T10" t="n">
+        <v>275496.4498992</v>
+      </c>
+      <c r="U10" t="n">
+        <v>42611.478144</v>
+      </c>
+      <c r="V10" t="n">
+        <v>30572.2155</v>
+      </c>
+      <c r="W10" t="n">
+        <v>2580</v>
+      </c>
+      <c r="X10" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>3060</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>1800</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ10" t="inlineStr"/>
+      <c r="AK10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>11</v>
+      </c>
+      <c r="C11" t="n">
+        <v>240</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>10</v>
+      </c>
+      <c r="F11" t="n">
+        <v>5</v>
+      </c>
+      <c r="G11" t="n">
+        <v>30</v>
+      </c>
+      <c r="H11" t="n">
+        <v>25</v>
+      </c>
+      <c r="I11" t="n">
+        <v>15</v>
+      </c>
+      <c r="J11" t="n">
+        <v>10</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>89</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="n">
+        <v>11</v>
+      </c>
+      <c r="O11" t="n">
+        <v>240</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="n">
+        <v>30</v>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,1,0,10</t>
+        </is>
+      </c>
+      <c r="T11" t="n">
+        <v>295158.4738512</v>
+      </c>
+      <c r="U11" t="n">
+        <v>43596.806784</v>
+      </c>
+      <c r="V11" t="n">
+        <v>30572.2155</v>
+      </c>
+      <c r="W11" t="n">
+        <v>2780</v>
+      </c>
+      <c r="X11" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>3060</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>1800</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ11" t="inlineStr"/>
+      <c r="AK11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>11</v>
+      </c>
+      <c r="C12" t="n">
+        <v>240</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>10</v>
+      </c>
+      <c r="F12" t="n">
+        <v>5</v>
+      </c>
+      <c r="G12" t="n">
+        <v>30</v>
+      </c>
+      <c r="H12" t="n">
+        <v>25</v>
+      </c>
+      <c r="I12" t="n">
+        <v>14</v>
+      </c>
+      <c r="J12" t="n">
+        <v>5</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>89</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="n">
+        <v>11</v>
+      </c>
+      <c r="O12" t="n">
+        <v>240</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="n">
+        <v>30</v>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,0,0,5</t>
+        </is>
+      </c>
+      <c r="T12" t="n">
+        <v>295158.4738512</v>
+      </c>
+      <c r="U12" t="n">
+        <v>43596.806784</v>
+      </c>
+      <c r="V12" t="n">
+        <v>30572.2155</v>
+      </c>
+      <c r="W12" t="n">
+        <v>2700</v>
+      </c>
+      <c r="X12" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>3000</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>1800</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ12" t="inlineStr"/>
+      <c r="AK12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>13</v>
+      </c>
+      <c r="C13" t="n">
+        <v>260</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>10</v>
+      </c>
+      <c r="F13" t="n">
+        <v>5</v>
+      </c>
+      <c r="G13" t="n">
+        <v>30</v>
+      </c>
+      <c r="H13" t="n">
+        <v>35</v>
+      </c>
+      <c r="I13" t="n">
+        <v>24</v>
+      </c>
+      <c r="J13" t="n">
+        <v>6</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>89</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="n">
+        <v>13</v>
+      </c>
+      <c r="O13" t="n">
+        <v>260</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="n">
+        <v>30</v>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,2,0,6</t>
+        </is>
+      </c>
+      <c r="T13" t="n">
+        <v>433912.7933872</v>
+      </c>
+      <c r="U13" t="n">
+        <v>65761.33174920001</v>
+      </c>
+      <c r="V13" t="n">
+        <v>51306.7956</v>
+      </c>
+      <c r="W13" t="n">
+        <v>2860</v>
+      </c>
+      <c r="X13" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>3120</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>1800</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>260</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>24</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ13" t="inlineStr"/>
+      <c r="AK13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>13</v>
+      </c>
+      <c r="C14" t="n">
+        <v>260</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>10</v>
+      </c>
+      <c r="F14" t="n">
+        <v>5</v>
+      </c>
+      <c r="G14" t="n">
+        <v>30</v>
+      </c>
+      <c r="H14" t="n">
+        <v>35</v>
+      </c>
+      <c r="I14" t="n">
+        <v>25</v>
+      </c>
+      <c r="J14" t="n">
+        <v>7</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>89</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2</v>
+      </c>
+      <c r="N14" t="n">
+        <v>13</v>
+      </c>
+      <c r="O14" t="n">
+        <v>260</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="n">
+        <v>30</v>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,2,1,7</t>
+        </is>
+      </c>
+      <c r="T14" t="n">
+        <v>433912.7933872</v>
+      </c>
+      <c r="U14" t="n">
+        <v>65761.33174920001</v>
+      </c>
+      <c r="V14" t="n">
+        <v>51306.7956</v>
+      </c>
+      <c r="W14" t="n">
+        <v>2940</v>
+      </c>
+      <c r="X14" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>3180</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>1800</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>260</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ14" t="inlineStr"/>
+      <c r="AK14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>15</v>
+      </c>
+      <c r="C15" t="n">
+        <v>300</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>10</v>
+      </c>
+      <c r="F15" t="n">
+        <v>5</v>
+      </c>
+      <c r="G15" t="n">
+        <v>30</v>
+      </c>
+      <c r="H15" t="n">
+        <v>55</v>
+      </c>
+      <c r="I15" t="n">
+        <v>45</v>
+      </c>
+      <c r="J15" t="n">
+        <v>8</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>89</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="n">
+        <v>15</v>
+      </c>
+      <c r="O15" t="n">
+        <v>300</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="n">
+        <v>30</v>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,3,3,3,8</t>
+        </is>
+      </c>
+      <c r="T15" t="n">
+        <v>1038803.2950588</v>
+      </c>
+      <c r="U15" t="n">
+        <v>162638.0339004</v>
+      </c>
+      <c r="V15" t="n">
+        <v>144285.7</v>
+      </c>
+      <c r="W15" t="n">
+        <v>3260</v>
+      </c>
+      <c r="X15" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>3420</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>1800</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>300</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>45</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ15" t="inlineStr"/>
+      <c r="AK15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>16</v>
+      </c>
+      <c r="C16" t="n">
+        <v>400</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>10</v>
+      </c>
+      <c r="F16" t="n">
+        <v>5</v>
+      </c>
+      <c r="G16" t="n">
+        <v>30</v>
+      </c>
+      <c r="H16" t="n">
+        <v>95</v>
+      </c>
+      <c r="I16" t="n">
+        <v>85</v>
+      </c>
+      <c r="J16" t="n">
+        <v>10</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>89</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="n">
+        <v>16</v>
+      </c>
+      <c r="O16" t="n">
+        <v>400</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="n">
+        <v>30</v>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,5,5,5,10</t>
+        </is>
+      </c>
+      <c r="T16" t="n">
+        <v>5367341.9728088</v>
+      </c>
+      <c r="U16" t="n">
+        <v>855730.7745539</v>
+      </c>
+      <c r="V16" t="n">
+        <v>717827.3539</v>
+      </c>
+      <c r="W16" t="n">
+        <v>3900</v>
+      </c>
+      <c r="X16" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>3900</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>1800</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>400</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>95</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>85</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ16" t="inlineStr"/>
+      <c r="AK16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>16</v>
+      </c>
+      <c r="C17" t="n">
+        <v>500</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>10</v>
+      </c>
+      <c r="F17" t="n">
+        <v>5</v>
+      </c>
+      <c r="G17" t="n">
+        <v>30</v>
+      </c>
+      <c r="H17" t="n">
+        <v>160</v>
+      </c>
+      <c r="I17" t="n">
+        <v>150</v>
+      </c>
+      <c r="J17" t="n">
+        <v>10</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>89</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" t="n">
+        <v>16</v>
+      </c>
+      <c r="O17" t="n">
+        <v>500</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="n">
+        <v>30</v>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,5,5,5,10</t>
+        </is>
+      </c>
+      <c r="T17" t="n">
+        <v>8771793.2608604</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1399843.6434581</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1167092.8948</v>
+      </c>
+      <c r="W17" t="n">
+        <v>4940</v>
+      </c>
+      <c r="X17" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>4680</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>1800</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>500</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>160</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>150</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ17" t="inlineStr"/>
+      <c r="AK17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>9</v>
+      </c>
+      <c r="C18" t="n">
+        <v>161</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>9</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>15</v>
+      </c>
+      <c r="I18" t="n">
+        <v>5</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>89</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" t="n">
+        <v>9</v>
+      </c>
+      <c r="O18" t="n">
+        <v>256</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>5,3,3,3,1,1,0,0,1</t>
+        </is>
+      </c>
+      <c r="T18" t="n">
+        <v>218961.2823004</v>
+      </c>
+      <c r="U18" t="n">
+        <v>42363.346918</v>
+      </c>
+      <c r="V18" t="n">
+        <v>27539.5628</v>
+      </c>
+      <c r="W18" t="n">
+        <v>1380</v>
+      </c>
+      <c r="X18" t="n">
+        <v>400</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>400</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>1660</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>256</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ18" t="inlineStr"/>
+      <c r="AK18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>10</v>
+      </c>
+      <c r="C19" t="n">
+        <v>200</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>9</v>
+      </c>
+      <c r="F19" t="n">
+        <v>5</v>
+      </c>
+      <c r="G19" t="n">
+        <v>10</v>
+      </c>
+      <c r="H19" t="n">
+        <v>20</v>
+      </c>
+      <c r="I19" t="n">
+        <v>10</v>
+      </c>
+      <c r="J19" t="n">
+        <v>2</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>89</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2</v>
+      </c>
+      <c r="N19" t="n">
+        <v>10</v>
+      </c>
+      <c r="O19" t="n">
+        <v>260</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="n">
+        <v>10</v>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>5,3,3,3,2,2,0,0,2</t>
+        </is>
+      </c>
+      <c r="T19" t="n">
+        <v>309885.7534704</v>
+      </c>
+      <c r="U19" t="n">
+        <v>53167.8577152</v>
+      </c>
+      <c r="V19" t="n">
+        <v>37493.9306</v>
+      </c>
+      <c r="W19" t="n">
+        <v>2300</v>
+      </c>
+      <c r="X19" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>3000</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>1800</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>260</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ19" t="inlineStr"/>
+      <c r="AK19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>11</v>
+      </c>
+      <c r="C20" t="n">
+        <v>240</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>10</v>
+      </c>
+      <c r="F20" t="n">
+        <v>5</v>
+      </c>
+      <c r="G20" t="n">
+        <v>20</v>
+      </c>
+      <c r="H20" t="n">
+        <v>25</v>
+      </c>
+      <c r="I20" t="n">
+        <v>15</v>
+      </c>
+      <c r="J20" t="n">
+        <v>5</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>89</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2</v>
+      </c>
+      <c r="N20" t="n">
+        <v>11</v>
+      </c>
+      <c r="O20" t="n">
+        <v>264</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="n">
+        <v>20</v>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>5,3,3,3,3,2,1,0,5</t>
+        </is>
+      </c>
+      <c r="T20" t="n">
+        <v>407594.6577488</v>
+      </c>
+      <c r="U20" t="n">
+        <v>65878.1743499</v>
+      </c>
+      <c r="V20" t="n">
+        <v>51070.1785</v>
+      </c>
+      <c r="W20" t="n">
+        <v>2580</v>
+      </c>
+      <c r="X20" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>3060</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>1800</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>264</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ20" t="inlineStr"/>
+      <c r="AK20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>13</v>
+      </c>
+      <c r="C21" t="n">
+        <v>260</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>10</v>
+      </c>
+      <c r="F21" t="n">
+        <v>5</v>
+      </c>
+      <c r="G21" t="n">
+        <v>30</v>
+      </c>
+      <c r="H21" t="n">
+        <v>35</v>
+      </c>
+      <c r="I21" t="n">
+        <v>25</v>
+      </c>
+      <c r="J21" t="n">
+        <v>7</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>89</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2</v>
+      </c>
+      <c r="N21" t="n">
+        <v>13</v>
+      </c>
+      <c r="O21" t="n">
+        <v>266</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="n">
+        <v>30</v>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,2,1,7</t>
+        </is>
+      </c>
+      <c r="T21" t="n">
+        <v>482198.2105944</v>
+      </c>
+      <c r="U21" t="n">
+        <v>76449.9300316</v>
+      </c>
+      <c r="V21" t="n">
+        <v>58766.7442</v>
+      </c>
+      <c r="W21" t="n">
+        <v>2940</v>
+      </c>
+      <c r="X21" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>3180</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>1800</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>266</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ21" t="inlineStr"/>
+      <c r="AK21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>15</v>
+      </c>
+      <c r="C22" t="n">
+        <v>300</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>10</v>
+      </c>
+      <c r="F22" t="n">
+        <v>5</v>
+      </c>
+      <c r="G22" t="n">
+        <v>30</v>
+      </c>
+      <c r="H22" t="n">
+        <v>55</v>
+      </c>
+      <c r="I22" t="n">
+        <v>45</v>
+      </c>
+      <c r="J22" t="n">
+        <v>8</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>89</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2</v>
+      </c>
+      <c r="N22" t="n">
+        <v>15</v>
+      </c>
+      <c r="O22" t="n">
+        <v>270</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="n">
+        <v>30</v>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,3,3,3,8</t>
+        </is>
+      </c>
+      <c r="T22" t="n">
+        <v>553261.7277200001</v>
+      </c>
+      <c r="U22" t="n">
+        <v>92571.6667298</v>
+      </c>
+      <c r="V22" t="n">
+        <v>72072.14110000001</v>
+      </c>
+      <c r="W22" t="n">
+        <v>3260</v>
+      </c>
+      <c r="X22" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>3420</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>1800</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>270</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>45</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ22" t="inlineStr"/>
+      <c r="AK22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>16</v>
+      </c>
+      <c r="C23" t="n">
+        <v>400</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>10</v>
+      </c>
+      <c r="F23" t="n">
+        <v>5</v>
+      </c>
+      <c r="G23" t="n">
+        <v>30</v>
+      </c>
+      <c r="H23" t="n">
+        <v>95</v>
+      </c>
+      <c r="I23" t="n">
+        <v>85</v>
+      </c>
+      <c r="J23" t="n">
+        <v>10</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>89</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" t="n">
+        <v>16</v>
+      </c>
+      <c r="O23" t="n">
+        <v>280</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="n">
+        <v>30</v>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,5,5,5,10</t>
+        </is>
+      </c>
+      <c r="T23" t="n">
+        <v>700069.1816876</v>
+      </c>
+      <c r="U23" t="n">
+        <v>125469.8654743</v>
+      </c>
+      <c r="V23" t="n">
+        <v>99010.48669999999</v>
+      </c>
+      <c r="W23" t="n">
+        <v>3900</v>
+      </c>
+      <c r="X23" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>3900</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>1800</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>280</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>95</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>85</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ23" t="inlineStr"/>
+      <c r="AK23" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/opm_hero_property/heroes/89.xlsx
+++ b/opm_hero_property/heroes/89.xlsx
@@ -6543,7 +6543,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK23"/>
+  <dimension ref="A1:AS25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6737,6 +6737,46 @@
           <t>type_aura</t>
         </is>
       </c>
+      <c r="AL1" t="inlineStr">
+        <is>
+          <t>基础战力</t>
+        </is>
+      </c>
+      <c r="AM1" t="inlineStr">
+        <is>
+          <t>装备战力</t>
+        </is>
+      </c>
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t>天赋战力</t>
+        </is>
+      </c>
+      <c r="AO1" t="inlineStr">
+        <is>
+          <t>研究所战力</t>
+        </is>
+      </c>
+      <c r="AP1" t="inlineStr">
+        <is>
+          <t>职阶战力</t>
+        </is>
+      </c>
+      <c r="AQ1" t="inlineStr">
+        <is>
+          <t>机械核心战力</t>
+        </is>
+      </c>
+      <c r="AR1" t="inlineStr">
+        <is>
+          <t>限制器战力</t>
+        </is>
+      </c>
+      <c r="AS1" t="inlineStr">
+        <is>
+          <t>总战力</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -6745,31 +6785,31 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>16</v>
+      </c>
+      <c r="C2" t="n">
+        <v>400</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>10</v>
+      </c>
+      <c r="F2" t="n">
         <v>5</v>
       </c>
-      <c r="C2" t="n">
-        <v>81</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>5</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
       <c r="G2" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -6781,106 +6821,130 @@
         <v>2</v>
       </c>
       <c r="N2" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="O2" t="n">
-        <v>81</v>
+        <v>400</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>3,2,1,1,0,0,0,0,0</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T2" t="n">
-        <v>35885.6298192</v>
+        <v>5502218.9728088</v>
       </c>
       <c r="U2" t="n">
-        <v>4213.343468</v>
+        <v>879458.7745539</v>
       </c>
       <c r="V2" t="n">
-        <v>2512.3764</v>
+        <v>739667.3539</v>
       </c>
       <c r="W2" t="n">
-        <v>1900</v>
+        <v>3900</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>720</v>
       </c>
       <c r="Y2" t="n">
         <v>15000</v>
       </c>
       <c r="Z2" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>3900</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>1800</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
         <v>400</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>1600</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>81</v>
       </c>
       <c r="AE2" t="n">
         <v>5000</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AI2" t="n">
         <v>0</v>
       </c>
       <c r="AJ2" t="inlineStr"/>
       <c r="AK2" t="inlineStr"/>
+      <c r="AL2" t="n">
+        <v>11549505.988195</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>1685980.51396071</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>481003.7</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>2007622</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>15838271.80215571</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>pve</t>
+          <t>pvp</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C3" t="n">
-        <v>121</v>
+        <v>400</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G3" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -6892,73 +6956,97 @@
         <v>2</v>
       </c>
       <c r="N3" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="O3" t="n">
-        <v>121</v>
+        <v>280</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>3,2,2,2,0,0,0,0,0</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T3" t="n">
-        <v>48576.5086716</v>
+        <v>700069.1816876</v>
       </c>
       <c r="U3" t="n">
-        <v>6455.9735468</v>
+        <v>125469.8654743</v>
       </c>
       <c r="V3" t="n">
-        <v>3614.546</v>
+        <v>99010.48669999999</v>
       </c>
       <c r="W3" t="n">
-        <v>1900</v>
+        <v>3900</v>
       </c>
       <c r="X3" t="n">
-        <v>400</v>
+        <v>720</v>
       </c>
       <c r="Y3" t="n">
         <v>15000</v>
       </c>
       <c r="Z3" t="n">
-        <v>400</v>
+        <v>720</v>
       </c>
       <c r="AA3" t="n">
-        <v>1600</v>
+        <v>3900</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000</v>
+        <v>1800</v>
       </c>
       <c r="AC3" t="n">
         <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>121</v>
+        <v>280</v>
       </c>
       <c r="AE3" t="n">
         <v>5000</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AI3" t="n">
         <v>0</v>
       </c>
       <c r="AJ3" t="inlineStr"/>
       <c r="AK3" t="inlineStr"/>
+      <c r="AL3" t="n">
+        <v>1309667.787015</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>190748.11497027</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>68760.45</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>466485.6</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>2149821.55198527</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -6967,16 +7055,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -6985,10 +7073,10 @@
         <v>-1</v>
       </c>
       <c r="H4" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -7003,10 +7091,10 @@
         <v>2</v>
       </c>
       <c r="N4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O4" t="n">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -7017,50 +7105,50 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>4,3,2,2,0,0,0,0,0</t>
+          <t>3,2,1,1,0,0,0,0,0</t>
         </is>
       </c>
       <c r="T4" t="n">
-        <v>83668.2350416</v>
+        <v>7483.5436</v>
       </c>
       <c r="U4" t="n">
-        <v>12061.5285</v>
+        <v>1568.876</v>
       </c>
       <c r="V4" t="n">
-        <v>7262.298</v>
+        <v>636.3764</v>
       </c>
       <c r="W4" t="n">
-        <v>1900</v>
+        <v>550</v>
       </c>
       <c r="X4" t="n">
-        <v>400</v>
+        <v>80</v>
       </c>
       <c r="Y4" t="n">
         <v>15000</v>
       </c>
       <c r="Z4" t="n">
-        <v>400</v>
+        <v>80</v>
       </c>
       <c r="AA4" t="n">
-        <v>1600</v>
+        <v>320</v>
       </c>
       <c r="AB4" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AC4" t="n">
         <v>0</v>
       </c>
       <c r="AD4" t="n">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="AE4" t="n">
         <v>5000</v>
       </c>
       <c r="AF4" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AH4" t="n">
         <v>0</v>
@@ -7070,6 +7158,30 @@
       </c>
       <c r="AJ4" t="inlineStr"/>
       <c r="AK4" t="inlineStr"/>
+      <c r="AL4" t="n">
+        <v>19198.5523</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>4498.9</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>23697.4523</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -7078,16 +7190,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -7096,13 +7208,13 @@
         <v>-1</v>
       </c>
       <c r="H5" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -7114,10 +7226,10 @@
         <v>2</v>
       </c>
       <c r="N5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O5" t="n">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -7128,59 +7240,83 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>4,3,2,2,0,1,0,0,1</t>
+          <t>3,2,2,2,0,0,0,0,0</t>
         </is>
       </c>
       <c r="T5" t="n">
-        <v>83668.2350416</v>
+        <v>19841.4553</v>
       </c>
       <c r="U5" t="n">
-        <v>12061.5285</v>
+        <v>3918.6876</v>
       </c>
       <c r="V5" t="n">
-        <v>7262.298</v>
+        <v>1960.546</v>
       </c>
       <c r="W5" t="n">
-        <v>1980</v>
+        <v>638</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>160</v>
       </c>
       <c r="Y5" t="n">
         <v>15000</v>
       </c>
       <c r="Z5" t="n">
+        <v>160</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>640</v>
+      </c>
+      <c r="AB5" t="n">
         <v>400</v>
       </c>
-      <c r="AA5" t="n">
-        <v>1660</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>1000</v>
-      </c>
       <c r="AC5" t="n">
         <v>0</v>
       </c>
       <c r="AD5" t="n">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="AE5" t="n">
         <v>5000</v>
       </c>
       <c r="AF5" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AH5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI5" t="n">
         <v>0</v>
       </c>
       <c r="AJ5" t="inlineStr"/>
       <c r="AK5" t="inlineStr"/>
+      <c r="AL5" t="n">
+        <v>48943.43924000001</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>11906.8</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>60850.23924000001</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -7204,16 +7340,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H6" t="n">
         <v>15</v>
       </c>
       <c r="I6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -7235,39 +7371,39 @@
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>4,3,2,2,1,1,0,0,2</t>
+          <t>4,3,2,2,0,0,0,0,0</t>
         </is>
       </c>
       <c r="T6" t="n">
-        <v>70576.9780336</v>
+        <v>56140.6028</v>
       </c>
       <c r="U6" t="n">
-        <v>11361.8235</v>
+        <v>9998.5</v>
       </c>
       <c r="V6" t="n">
-        <v>7262.298</v>
+        <v>6262.298</v>
       </c>
       <c r="W6" t="n">
-        <v>1380</v>
+        <v>900</v>
       </c>
       <c r="X6" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="Y6" t="n">
         <v>15000</v>
       </c>
       <c r="Z6" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="AA6" t="n">
-        <v>1660</v>
+        <v>1200</v>
       </c>
       <c r="AB6" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="AC6" t="n">
         <v>0</v>
@@ -7282,16 +7418,40 @@
         <v>15</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI6" t="n">
         <v>0</v>
       </c>
       <c r="AJ6" t="inlineStr"/>
       <c r="AK6" t="inlineStr"/>
+      <c r="AL6" t="n">
+        <v>117400.3663</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>32738.5</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>6160.5</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>9406.6</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>165705.9663</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -7300,31 +7460,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C7" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>-1</v>
       </c>
       <c r="H7" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="I7" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -7336,10 +7496,10 @@
         <v>2</v>
       </c>
       <c r="N7" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O7" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -7350,59 +7510,83 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>5,3,3,3,0,2,1,0,0</t>
+          <t>4,3,2,2,0,1,0,0,1</t>
         </is>
       </c>
       <c r="T7" t="n">
-        <v>295158.4738512</v>
+        <v>56140.6028</v>
       </c>
       <c r="U7" t="n">
-        <v>43596.806784</v>
+        <v>9998.5</v>
       </c>
       <c r="V7" t="n">
-        <v>30572.2155</v>
+        <v>6262.298</v>
       </c>
       <c r="W7" t="n">
-        <v>2780</v>
+        <v>980</v>
       </c>
       <c r="X7" t="n">
-        <v>720</v>
+        <v>300</v>
       </c>
       <c r="Y7" t="n">
         <v>15000</v>
       </c>
       <c r="Z7" t="n">
-        <v>720</v>
+        <v>300</v>
       </c>
       <c r="AA7" t="n">
-        <v>3060</v>
+        <v>1260</v>
       </c>
       <c r="AB7" t="n">
-        <v>1800</v>
+        <v>750</v>
       </c>
       <c r="AC7" t="n">
         <v>0</v>
       </c>
       <c r="AD7" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="AE7" t="n">
         <v>5000</v>
       </c>
       <c r="AF7" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI7" t="n">
         <v>0</v>
       </c>
       <c r="AJ7" t="inlineStr"/>
       <c r="AK7" t="inlineStr"/>
+      <c r="AL7" t="n">
+        <v>117400.3663</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>32738.5</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>6160.5</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>9589.6</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>165888.9663</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -7411,31 +7595,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C8" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>15</v>
+      </c>
+      <c r="I8" t="n">
         <v>5</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>25</v>
-      </c>
-      <c r="I8" t="n">
-        <v>15</v>
-      </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -7447,10 +7631,10 @@
         <v>2</v>
       </c>
       <c r="N8" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O8" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -7461,59 +7645,83 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>5,3,3,3,1,2,1,0,1</t>
+          <t>4,3,2,2,1,1,0,0,2</t>
         </is>
       </c>
       <c r="T8" t="n">
-        <v>236172.4019952</v>
+        <v>56576.9780336</v>
       </c>
       <c r="U8" t="n">
-        <v>40640.820864</v>
+        <v>10021.8235</v>
       </c>
       <c r="V8" t="n">
-        <v>30572.2155</v>
+        <v>6262.298</v>
       </c>
       <c r="W8" t="n">
-        <v>2180</v>
+        <v>980</v>
       </c>
       <c r="X8" t="n">
-        <v>720</v>
+        <v>300</v>
       </c>
       <c r="Y8" t="n">
         <v>15000</v>
       </c>
       <c r="Z8" t="n">
-        <v>720</v>
+        <v>300</v>
       </c>
       <c r="AA8" t="n">
-        <v>3060</v>
+        <v>1260</v>
       </c>
       <c r="AB8" t="n">
-        <v>1800</v>
+        <v>750</v>
       </c>
       <c r="AC8" t="n">
         <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="AE8" t="n">
         <v>5000</v>
       </c>
       <c r="AF8" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AH8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI8" t="n">
         <v>0</v>
       </c>
       <c r="AJ8" t="inlineStr"/>
       <c r="AK8" t="inlineStr"/>
+      <c r="AL8" t="n">
+        <v>117400.3663</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>32738.5</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>597.3073836</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>6160.5</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>9589.6</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>166486.2736836</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7537,7 +7745,7 @@
         <v>5</v>
       </c>
       <c r="G9" t="n">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="H9" t="n">
         <v>25</v>
@@ -7546,7 +7754,7 @@
         <v>15</v>
       </c>
       <c r="J9" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -7568,24 +7776,24 @@
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="n">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>5,3,3,3,2,2,1,0,5</t>
+          <t>5,3,3,3,0,2,1,0,0</t>
         </is>
       </c>
       <c r="T9" t="n">
-        <v>255834.4259472</v>
+        <v>233417.1996</v>
       </c>
       <c r="U9" t="n">
-        <v>41626.149504</v>
+        <v>40699.288</v>
       </c>
       <c r="V9" t="n">
-        <v>30572.2155</v>
+        <v>30699.2155</v>
       </c>
       <c r="W9" t="n">
-        <v>2380</v>
+        <v>2180</v>
       </c>
       <c r="X9" t="n">
         <v>720</v>
@@ -7618,13 +7826,37 @@
         <v>15</v>
       </c>
       <c r="AH9" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AI9" t="n">
         <v>0</v>
       </c>
       <c r="AJ9" t="inlineStr"/>
       <c r="AK9" t="inlineStr"/>
+      <c r="AL9" t="n">
+        <v>533499.525925</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>39130.6</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>701910.775925</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7648,7 +7880,7 @@
         <v>5</v>
       </c>
       <c r="G10" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>25</v>
@@ -7657,7 +7889,7 @@
         <v>15</v>
       </c>
       <c r="J10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -7679,24 +7911,24 @@
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>5,3,3,3,3,2,1,0,5</t>
+          <t>5,3,3,3,1,2,1,0,1</t>
         </is>
       </c>
       <c r="T10" t="n">
-        <v>275496.4498992</v>
+        <v>235383.4019952</v>
       </c>
       <c r="U10" t="n">
-        <v>42611.478144</v>
+        <v>40797.820864</v>
       </c>
       <c r="V10" t="n">
-        <v>30572.2155</v>
+        <v>30699.2155</v>
       </c>
       <c r="W10" t="n">
-        <v>2580</v>
+        <v>2180</v>
       </c>
       <c r="X10" t="n">
         <v>720</v>
@@ -7729,13 +7961,37 @@
         <v>15</v>
       </c>
       <c r="AH10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AI10" t="n">
         <v>0</v>
       </c>
       <c r="AJ10" t="inlineStr"/>
       <c r="AK10" t="inlineStr"/>
+      <c r="AL10" t="n">
+        <v>533499.525925</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>2646.0791568</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>39130.6</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>704556.8550818</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7759,7 +8015,7 @@
         <v>5</v>
       </c>
       <c r="G11" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H11" t="n">
         <v>25</v>
@@ -7768,7 +8024,7 @@
         <v>15</v>
       </c>
       <c r="J11" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -7790,24 +8046,24 @@
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,1,0,10</t>
+          <t>5,3,3,3,2,2,1,0,5</t>
         </is>
       </c>
       <c r="T11" t="n">
-        <v>295158.4738512</v>
+        <v>255045.4259472</v>
       </c>
       <c r="U11" t="n">
-        <v>43596.806784</v>
+        <v>41783.149504</v>
       </c>
       <c r="V11" t="n">
-        <v>30572.2155</v>
+        <v>30699.2155</v>
       </c>
       <c r="W11" t="n">
-        <v>2780</v>
+        <v>2380</v>
       </c>
       <c r="X11" t="n">
         <v>720</v>
@@ -7840,13 +8096,37 @@
         <v>15</v>
       </c>
       <c r="AH11" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AI11" t="n">
         <v>0</v>
       </c>
       <c r="AJ11" t="inlineStr"/>
       <c r="AK11" t="inlineStr"/>
+      <c r="AL11" t="n">
+        <v>533499.525925</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>29436.8707248</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>39130.6</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>731347.6466497999</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -7870,13 +8150,13 @@
         <v>5</v>
       </c>
       <c r="G12" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H12" t="n">
         <v>25</v>
       </c>
       <c r="I12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J12" t="n">
         <v>5</v>
@@ -7901,24 +8181,24 @@
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,0,0,5</t>
+          <t>5,3,3,3,3,2,1,0,5</t>
         </is>
       </c>
       <c r="T12" t="n">
-        <v>295158.4738512</v>
+        <v>274707.4498992</v>
       </c>
       <c r="U12" t="n">
-        <v>43596.806784</v>
+        <v>42768.478144</v>
       </c>
       <c r="V12" t="n">
-        <v>30572.2155</v>
+        <v>30699.2155</v>
       </c>
       <c r="W12" t="n">
-        <v>2700</v>
+        <v>2580</v>
       </c>
       <c r="X12" t="n">
         <v>720</v>
@@ -7930,7 +8210,7 @@
         <v>720</v>
       </c>
       <c r="AA12" t="n">
-        <v>3000</v>
+        <v>3060</v>
       </c>
       <c r="AB12" t="n">
         <v>1800</v>
@@ -7948,7 +8228,7 @@
         <v>25</v>
       </c>
       <c r="AG12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH12" t="n">
         <v>5</v>
@@ -7958,6 +8238,30 @@
       </c>
       <c r="AJ12" t="inlineStr"/>
       <c r="AK12" t="inlineStr"/>
+      <c r="AL12" t="n">
+        <v>533499.525925</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>56227.6622928</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>39130.6</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>758138.4382178</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -7966,10 +8270,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -7984,13 +8288,13 @@
         <v>30</v>
       </c>
       <c r="H13" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I13" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="J13" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -8002,10 +8306,10 @@
         <v>2</v>
       </c>
       <c r="N13" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O13" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -8016,20 +8320,20 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,2,0,6</t>
+          <t>5,3,3,3,4,2,1,0,10</t>
         </is>
       </c>
       <c r="T13" t="n">
-        <v>433912.7933872</v>
+        <v>294369.4738512</v>
       </c>
       <c r="U13" t="n">
-        <v>65761.33174920001</v>
+        <v>43753.806784</v>
       </c>
       <c r="V13" t="n">
-        <v>51306.7956</v>
+        <v>30699.2155</v>
       </c>
       <c r="W13" t="n">
-        <v>2860</v>
+        <v>2780</v>
       </c>
       <c r="X13" t="n">
         <v>720</v>
@@ -8041,7 +8345,7 @@
         <v>720</v>
       </c>
       <c r="AA13" t="n">
-        <v>3120</v>
+        <v>3060</v>
       </c>
       <c r="AB13" t="n">
         <v>1800</v>
@@ -8050,25 +8354,49 @@
         <v>0</v>
       </c>
       <c r="AD13" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="AE13" t="n">
         <v>5000</v>
       </c>
       <c r="AF13" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="AG13" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="AH13" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AI13" t="n">
         <v>0</v>
       </c>
       <c r="AJ13" t="inlineStr"/>
       <c r="AK13" t="inlineStr"/>
+      <c r="AL13" t="n">
+        <v>533499.525925</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>83018.4538608</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>39130.6</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>784929.2297857999</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -8077,10 +8405,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C14" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -8095,13 +8423,13 @@
         <v>30</v>
       </c>
       <c r="H14" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I14" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="J14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8113,10 +8441,10 @@
         <v>2</v>
       </c>
       <c r="N14" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O14" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -8127,20 +8455,20 @@
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,2,1,7</t>
+          <t>5,3,3,3,4,2,0,0,5</t>
         </is>
       </c>
       <c r="T14" t="n">
-        <v>433912.7933872</v>
+        <v>294369.4738512</v>
       </c>
       <c r="U14" t="n">
-        <v>65761.33174920001</v>
+        <v>43753.806784</v>
       </c>
       <c r="V14" t="n">
-        <v>51306.7956</v>
+        <v>30699.2155</v>
       </c>
       <c r="W14" t="n">
-        <v>2940</v>
+        <v>2700</v>
       </c>
       <c r="X14" t="n">
         <v>720</v>
@@ -8152,7 +8480,7 @@
         <v>720</v>
       </c>
       <c r="AA14" t="n">
-        <v>3180</v>
+        <v>3000</v>
       </c>
       <c r="AB14" t="n">
         <v>1800</v>
@@ -8161,25 +8489,49 @@
         <v>0</v>
       </c>
       <c r="AD14" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="AE14" t="n">
         <v>5000</v>
       </c>
       <c r="AF14" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="AG14" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="AH14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AI14" t="n">
         <v>0</v>
       </c>
       <c r="AJ14" t="inlineStr"/>
       <c r="AK14" t="inlineStr"/>
+      <c r="AL14" t="n">
+        <v>533499.525925</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>83018.4538608</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>38947.6</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>784746.2297857999</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -8188,10 +8540,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -8206,13 +8558,13 @@
         <v>30</v>
       </c>
       <c r="H15" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="I15" t="n">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="J15" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -8224,10 +8576,10 @@
         <v>2</v>
       </c>
       <c r="N15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O15" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -8238,20 +8590,20 @@
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,3,3,3,8</t>
+          <t>5,3,3,3,4,2,2,0,6</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>1038803.2950588</v>
+        <v>436412.7933872</v>
       </c>
       <c r="U15" t="n">
-        <v>162638.0339004</v>
+        <v>66569.33174920001</v>
       </c>
       <c r="V15" t="n">
-        <v>144285.7</v>
+        <v>52080.7956</v>
       </c>
       <c r="W15" t="n">
-        <v>3260</v>
+        <v>2860</v>
       </c>
       <c r="X15" t="n">
         <v>720</v>
@@ -8263,7 +8615,7 @@
         <v>720</v>
       </c>
       <c r="AA15" t="n">
-        <v>3420</v>
+        <v>3120</v>
       </c>
       <c r="AB15" t="n">
         <v>1800</v>
@@ -8272,25 +8624,49 @@
         <v>0</v>
       </c>
       <c r="AD15" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="AE15" t="n">
         <v>5000</v>
       </c>
       <c r="AF15" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="AG15" t="n">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="AH15" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AI15" t="n">
         <v>0</v>
       </c>
       <c r="AJ15" t="inlineStr"/>
       <c r="AK15" t="inlineStr"/>
+      <c r="AL15" t="n">
+        <v>824643.69466</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>123791.26249668</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>33220.2</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>111712</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>1207526.75715668</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -8299,10 +8675,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C16" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -8317,13 +8693,13 @@
         <v>30</v>
       </c>
       <c r="H16" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="I16" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="J16" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -8335,10 +8711,10 @@
         <v>2</v>
       </c>
       <c r="N16" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="O16" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -8349,20 +8725,20 @@
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,5,5,5,10</t>
+          <t>5,3,3,3,4,2,2,1,7</t>
         </is>
       </c>
       <c r="T16" t="n">
-        <v>5367341.9728088</v>
+        <v>436412.7933872</v>
       </c>
       <c r="U16" t="n">
-        <v>855730.7745539</v>
+        <v>66569.33174920001</v>
       </c>
       <c r="V16" t="n">
-        <v>717827.3539</v>
+        <v>52080.7956</v>
       </c>
       <c r="W16" t="n">
-        <v>3900</v>
+        <v>2940</v>
       </c>
       <c r="X16" t="n">
         <v>720</v>
@@ -8374,7 +8750,7 @@
         <v>720</v>
       </c>
       <c r="AA16" t="n">
-        <v>3900</v>
+        <v>3180</v>
       </c>
       <c r="AB16" t="n">
         <v>1800</v>
@@ -8383,25 +8759,49 @@
         <v>0</v>
       </c>
       <c r="AD16" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="AE16" t="n">
         <v>5000</v>
       </c>
       <c r="AF16" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="AG16" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="AH16" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AI16" t="n">
         <v>0</v>
       </c>
       <c r="AJ16" t="inlineStr"/>
       <c r="AK16" t="inlineStr"/>
+      <c r="AL16" t="n">
+        <v>824643.69466</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>123791.26249668</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>33220.2</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>111895</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>1207709.75715668</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -8410,10 +8810,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -8428,13 +8828,13 @@
         <v>30</v>
       </c>
       <c r="H17" t="n">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="I17" t="n">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="J17" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -8446,10 +8846,10 @@
         <v>2</v>
       </c>
       <c r="N17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O17" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -8460,20 +8860,20 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,5,5,5,10</t>
+          <t>5,3,3,3,4,3,3,3,8</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>8771793.2608604</v>
+        <v>1076298.2950588</v>
       </c>
       <c r="U17" t="n">
-        <v>1399843.6434581</v>
+        <v>169495.0339004</v>
       </c>
       <c r="V17" t="n">
-        <v>1167092.8948</v>
+        <v>150918.7</v>
       </c>
       <c r="W17" t="n">
-        <v>4940</v>
+        <v>3260</v>
       </c>
       <c r="X17" t="n">
         <v>720</v>
@@ -8485,7 +8885,7 @@
         <v>720</v>
       </c>
       <c r="AA17" t="n">
-        <v>4680</v>
+        <v>3420</v>
       </c>
       <c r="AB17" t="n">
         <v>1800</v>
@@ -8494,58 +8894,82 @@
         <v>0</v>
       </c>
       <c r="AD17" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="AE17" t="n">
         <v>5000</v>
       </c>
       <c r="AF17" t="n">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="AG17" t="n">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="AH17" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AI17" t="n">
         <v>0</v>
       </c>
       <c r="AJ17" t="inlineStr"/>
       <c r="AK17" t="inlineStr"/>
+      <c r="AL17" t="n">
+        <v>1898377.45922</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>272905.94475156</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>155697.55</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>685692</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>3126832.55397156</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>pvp</t>
+          <t>pve</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>161</v>
+        <v>400</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H18" t="n">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="I18" t="n">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -8557,106 +8981,130 @@
         <v>2</v>
       </c>
       <c r="N18" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="O18" t="n">
-        <v>256</v>
+        <v>400</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>5,3,3,3,1,1,0,0,1</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T18" t="n">
-        <v>218961.2823004</v>
+        <v>5502218.9728088</v>
       </c>
       <c r="U18" t="n">
-        <v>42363.346918</v>
+        <v>879458.7745539</v>
       </c>
       <c r="V18" t="n">
-        <v>27539.5628</v>
+        <v>739667.3539</v>
       </c>
       <c r="W18" t="n">
-        <v>1380</v>
+        <v>3900</v>
       </c>
       <c r="X18" t="n">
-        <v>400</v>
+        <v>720</v>
       </c>
       <c r="Y18" t="n">
         <v>15000</v>
       </c>
       <c r="Z18" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>3900</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>1800</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD18" t="n">
         <v>400</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>1660</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>256</v>
       </c>
       <c r="AE18" t="n">
         <v>5000</v>
       </c>
       <c r="AF18" t="n">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="AG18" t="n">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="AH18" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AI18" t="n">
         <v>0</v>
       </c>
       <c r="AJ18" t="inlineStr"/>
       <c r="AK18" t="inlineStr"/>
+      <c r="AL18" t="n">
+        <v>11549505.988195</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>1685980.51396071</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>481003.7</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>2007622</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>15838271.80215571</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>pvp</t>
+          <t>pve</t>
         </is>
       </c>
       <c r="B19" t="n">
+        <v>16</v>
+      </c>
+      <c r="C19" t="n">
+        <v>500</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
         <v>10</v>
-      </c>
-      <c r="C19" t="n">
-        <v>200</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>9</v>
       </c>
       <c r="F19" t="n">
         <v>5</v>
       </c>
       <c r="G19" t="n">
+        <v>30</v>
+      </c>
+      <c r="H19" t="n">
+        <v>160</v>
+      </c>
+      <c r="I19" t="n">
+        <v>150</v>
+      </c>
+      <c r="J19" t="n">
         <v>10</v>
-      </c>
-      <c r="H19" t="n">
-        <v>20</v>
-      </c>
-      <c r="I19" t="n">
-        <v>10</v>
-      </c>
-      <c r="J19" t="n">
-        <v>2</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -8668,34 +9116,34 @@
         <v>2</v>
       </c>
       <c r="N19" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="O19" t="n">
-        <v>260</v>
+        <v>500</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>5,3,3,3,2,2,0,0,2</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T19" t="n">
-        <v>309885.7534704</v>
+        <v>9081511.2608604</v>
       </c>
       <c r="U19" t="n">
-        <v>53167.8577152</v>
+        <v>1453876.6434581</v>
       </c>
       <c r="V19" t="n">
-        <v>37493.9306</v>
+        <v>1216324.8948</v>
       </c>
       <c r="W19" t="n">
-        <v>2300</v>
+        <v>4940</v>
       </c>
       <c r="X19" t="n">
         <v>720</v>
@@ -8707,7 +9155,7 @@
         <v>720</v>
       </c>
       <c r="AA19" t="n">
-        <v>3000</v>
+        <v>4680</v>
       </c>
       <c r="AB19" t="n">
         <v>1800</v>
@@ -8716,25 +9164,49 @@
         <v>0</v>
       </c>
       <c r="AD19" t="n">
-        <v>260</v>
+        <v>500</v>
       </c>
       <c r="AE19" t="n">
         <v>5000</v>
       </c>
       <c r="AF19" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="AG19" t="n">
+        <v>150</v>
+      </c>
+      <c r="AH19" t="n">
         <v>10</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>2</v>
       </c>
       <c r="AI19" t="n">
         <v>0</v>
       </c>
       <c r="AJ19" t="inlineStr"/>
       <c r="AK19" t="inlineStr"/>
+      <c r="AL19" t="n">
+        <v>18736169.26253</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>2741634.58329129</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>1061573.2</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>3470670.6</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>26124207.24582129</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -8743,31 +9215,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C20" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>15</v>
+      </c>
+      <c r="I20" t="n">
         <v>5</v>
       </c>
-      <c r="G20" t="n">
-        <v>20</v>
-      </c>
-      <c r="H20" t="n">
-        <v>25</v>
-      </c>
-      <c r="I20" t="n">
-        <v>15</v>
-      </c>
       <c r="J20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -8779,73 +9251,97 @@
         <v>2</v>
       </c>
       <c r="N20" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O20" t="n">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>5,3,3,3,3,2,1,0,5</t>
+          <t>5,3,3,3,1,1,0,0,1</t>
         </is>
       </c>
       <c r="T20" t="n">
-        <v>407594.6577488</v>
+        <v>204961.2823004</v>
       </c>
       <c r="U20" t="n">
-        <v>65878.1743499</v>
+        <v>41023.346918</v>
       </c>
       <c r="V20" t="n">
-        <v>51070.1785</v>
+        <v>26539.5628</v>
       </c>
       <c r="W20" t="n">
-        <v>2580</v>
+        <v>980</v>
       </c>
       <c r="X20" t="n">
-        <v>720</v>
+        <v>300</v>
       </c>
       <c r="Y20" t="n">
         <v>15000</v>
       </c>
       <c r="Z20" t="n">
-        <v>720</v>
+        <v>300</v>
       </c>
       <c r="AA20" t="n">
-        <v>3060</v>
+        <v>1260</v>
       </c>
       <c r="AB20" t="n">
-        <v>1800</v>
+        <v>750</v>
       </c>
       <c r="AC20" t="n">
         <v>0</v>
       </c>
       <c r="AD20" t="n">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="AE20" t="n">
         <v>5000</v>
       </c>
       <c r="AF20" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AG20" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AH20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AI20" t="n">
         <v>0</v>
       </c>
       <c r="AJ20" t="inlineStr"/>
       <c r="AK20" t="inlineStr"/>
+      <c r="AL20" t="n">
+        <v>562134.5642</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>32738.5</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>2822.5979346</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>14696.9</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>32982.8</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>645375.3621345999</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -8854,31 +9350,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C21" t="n">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F21" t="n">
         <v>5</v>
       </c>
       <c r="G21" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H21" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="I21" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J21" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -8890,73 +9386,97 @@
         <v>2</v>
       </c>
       <c r="N21" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="O21" t="n">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,2,1,7</t>
+          <t>5,3,3,3,2,2,0,0,2</t>
         </is>
       </c>
       <c r="T21" t="n">
-        <v>482198.2105944</v>
+        <v>280485.7534704</v>
       </c>
       <c r="U21" t="n">
-        <v>76449.9300316</v>
+        <v>50353.8577152</v>
       </c>
       <c r="V21" t="n">
-        <v>58766.7442</v>
+        <v>35393.9306</v>
       </c>
       <c r="W21" t="n">
-        <v>2940</v>
+        <v>1460</v>
       </c>
       <c r="X21" t="n">
-        <v>720</v>
+        <v>450</v>
       </c>
       <c r="Y21" t="n">
         <v>15000</v>
       </c>
       <c r="Z21" t="n">
-        <v>720</v>
+        <v>450</v>
       </c>
       <c r="AA21" t="n">
-        <v>3180</v>
+        <v>1920</v>
       </c>
       <c r="AB21" t="n">
-        <v>1800</v>
+        <v>1125</v>
       </c>
       <c r="AC21" t="n">
         <v>0</v>
       </c>
       <c r="AD21" t="n">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="AE21" t="n">
         <v>5000</v>
       </c>
       <c r="AF21" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="AG21" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AH21" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AI21" t="n">
         <v>0</v>
       </c>
       <c r="AJ21" t="inlineStr"/>
       <c r="AK21" t="inlineStr"/>
+      <c r="AL21" t="n">
+        <v>667914.1295100001</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>49107.75</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>36561.64314528</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>19028.1</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>65965.60000000001</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>838577.22265528</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -8965,10 +9485,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C22" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -8980,16 +9500,16 @@
         <v>5</v>
       </c>
       <c r="G22" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H22" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="I22" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="J22" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -9001,34 +9521,34 @@
         <v>2</v>
       </c>
       <c r="N22" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="O22" t="n">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,3,3,3,8</t>
+          <t>5,3,3,3,3,2,1,0,5</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>553261.7277200001</v>
+        <v>407594.6577488</v>
       </c>
       <c r="U22" t="n">
-        <v>92571.6667298</v>
+        <v>65878.1743499</v>
       </c>
       <c r="V22" t="n">
-        <v>72072.14110000001</v>
+        <v>51070.1785</v>
       </c>
       <c r="W22" t="n">
-        <v>3260</v>
+        <v>2580</v>
       </c>
       <c r="X22" t="n">
         <v>720</v>
@@ -9040,7 +9560,7 @@
         <v>720</v>
       </c>
       <c r="AA22" t="n">
-        <v>3420</v>
+        <v>3060</v>
       </c>
       <c r="AB22" t="n">
         <v>1800</v>
@@ -9049,25 +9569,49 @@
         <v>0</v>
       </c>
       <c r="AD22" t="n">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="AE22" t="n">
         <v>5000</v>
       </c>
       <c r="AF22" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="AG22" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="AH22" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AI22" t="n">
         <v>0</v>
       </c>
       <c r="AJ22" t="inlineStr"/>
       <c r="AK22" t="inlineStr"/>
+      <c r="AL22" t="n">
+        <v>848298.018145</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>86304.86899311001</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>23382.7</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>95470.39999999999</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>1167615.58713811</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -9076,10 +9620,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C23" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -9094,13 +9638,13 @@
         <v>30</v>
       </c>
       <c r="H23" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="I23" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="J23" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9112,10 +9656,10 @@
         <v>2</v>
       </c>
       <c r="N23" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="O23" t="n">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9126,20 +9670,20 @@
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,5,5,5,10</t>
+          <t>5,3,3,3,4,2,2,1,7</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>700069.1816876</v>
+        <v>482198.2105944</v>
       </c>
       <c r="U23" t="n">
-        <v>125469.8654743</v>
+        <v>76449.9300316</v>
       </c>
       <c r="V23" t="n">
-        <v>99010.48669999999</v>
+        <v>58766.7442</v>
       </c>
       <c r="W23" t="n">
-        <v>3900</v>
+        <v>2940</v>
       </c>
       <c r="X23" t="n">
         <v>720</v>
@@ -9151,7 +9695,7 @@
         <v>720</v>
       </c>
       <c r="AA23" t="n">
-        <v>3900</v>
+        <v>3180</v>
       </c>
       <c r="AB23" t="n">
         <v>1800</v>
@@ -9160,25 +9704,319 @@
         <v>0</v>
       </c>
       <c r="AD23" t="n">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="AE23" t="n">
         <v>5000</v>
       </c>
       <c r="AF23" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="AG23" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="AH23" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AI23" t="n">
         <v>0</v>
       </c>
       <c r="AJ23" t="inlineStr"/>
       <c r="AK23" t="inlineStr"/>
+      <c r="AL23" t="n">
+        <v>927138.87363</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>138129.38333244</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>30363.65</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>150324</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>1360115.50696244</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>15</v>
+      </c>
+      <c r="C24" t="n">
+        <v>300</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>10</v>
+      </c>
+      <c r="F24" t="n">
+        <v>5</v>
+      </c>
+      <c r="G24" t="n">
+        <v>30</v>
+      </c>
+      <c r="H24" t="n">
+        <v>55</v>
+      </c>
+      <c r="I24" t="n">
+        <v>45</v>
+      </c>
+      <c r="J24" t="n">
+        <v>8</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>89</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2</v>
+      </c>
+      <c r="N24" t="n">
+        <v>15</v>
+      </c>
+      <c r="O24" t="n">
+        <v>270</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="n">
+        <v>30</v>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,3,3,3,8</t>
+        </is>
+      </c>
+      <c r="T24" t="n">
+        <v>553261.7277200001</v>
+      </c>
+      <c r="U24" t="n">
+        <v>92571.6667298</v>
+      </c>
+      <c r="V24" t="n">
+        <v>72072.14110000001</v>
+      </c>
+      <c r="W24" t="n">
+        <v>3260</v>
+      </c>
+      <c r="X24" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>3420</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>1800</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>270</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>45</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ24" t="inlineStr"/>
+      <c r="AK24" t="inlineStr"/>
+      <c r="AL24" t="n">
+        <v>1051498.819665</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>155114.36981562</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>43173.05</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>255711.2</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>1619657.03948062</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>16</v>
+      </c>
+      <c r="C25" t="n">
+        <v>400</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>10</v>
+      </c>
+      <c r="F25" t="n">
+        <v>5</v>
+      </c>
+      <c r="G25" t="n">
+        <v>30</v>
+      </c>
+      <c r="H25" t="n">
+        <v>95</v>
+      </c>
+      <c r="I25" t="n">
+        <v>85</v>
+      </c>
+      <c r="J25" t="n">
+        <v>10</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>89</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="n">
+        <v>16</v>
+      </c>
+      <c r="O25" t="n">
+        <v>280</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="n">
+        <v>30</v>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,5,5,5,10</t>
+        </is>
+      </c>
+      <c r="T25" t="n">
+        <v>700069.1816876</v>
+      </c>
+      <c r="U25" t="n">
+        <v>125469.8654743</v>
+      </c>
+      <c r="V25" t="n">
+        <v>99010.48669999999</v>
+      </c>
+      <c r="W25" t="n">
+        <v>3900</v>
+      </c>
+      <c r="X25" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>3900</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>1800</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>280</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>95</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>85</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ25" t="inlineStr"/>
+      <c r="AK25" t="inlineStr"/>
+      <c r="AL25" t="n">
+        <v>1309667.787015</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>190748.11497027</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>68760.45</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>466485.6</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>2149821.55198527</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/opm_hero_property/heroes/89.xlsx
+++ b/opm_hero_property/heroes/89.xlsx
@@ -997,87 +997,87 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,47553;31,7383;41,2817</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,71267;31,11063;41,0</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,35572;31,5531;41,0</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,5701;31,892;41,401</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,8544;31,1337;41,0</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,4265;31,668;41,0</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>1</v>
+        <v>47553.0825</v>
       </c>
       <c r="O2" t="n">
-        <v>1</v>
+        <v>7383.537</v>
       </c>
       <c r="P2" t="n">
-        <v>1</v>
+        <v>2817.8367</v>
       </c>
       <c r="Q2" t="n">
-        <v>1</v>
+        <v>71267.8665</v>
       </c>
       <c r="R2" t="n">
-        <v>1</v>
+        <v>11063.5856</v>
       </c>
       <c r="S2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>1</v>
+        <v>35572.176</v>
       </c>
       <c r="U2" t="n">
-        <v>1</v>
+        <v>5531.7928</v>
       </c>
       <c r="V2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>1</v>
+        <v>5701.542</v>
       </c>
       <c r="X2" t="n">
-        <v>1</v>
+        <v>892.899</v>
       </c>
       <c r="Y2" t="n">
-        <v>1</v>
+        <v>401.0895</v>
       </c>
       <c r="Z2" t="n">
-        <v>1</v>
+        <v>8544.9084</v>
       </c>
       <c r="AA2" t="n">
-        <v>1</v>
+        <v>1337.9312</v>
       </c>
       <c r="AB2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC2" t="n">
-        <v>1</v>
+        <v>4265.0496</v>
       </c>
       <c r="AD2" t="n">
-        <v>1</v>
+        <v>668.9656</v>
       </c>
       <c r="AE2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1104,87 +1104,87 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,47557;31,7384;41,2818</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,71274;31,11065;41,0</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,35575;31,5532;41,0</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,5705;31,894;41,401</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,8551;31,1339;41,0</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,4268;31,669;41,0</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>1</v>
+        <v>47557.433</v>
       </c>
       <c r="O3" t="n">
-        <v>1</v>
+        <v>7384.7025</v>
       </c>
       <c r="P3" t="n">
-        <v>1</v>
+        <v>2818.3008</v>
       </c>
       <c r="Q3" t="n">
-        <v>1</v>
+        <v>71274.3866</v>
       </c>
       <c r="R3" t="n">
-        <v>1</v>
+        <v>11065.332</v>
       </c>
       <c r="S3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>1</v>
+        <v>35575.4304</v>
       </c>
       <c r="U3" t="n">
-        <v>1</v>
+        <v>5532.666</v>
       </c>
       <c r="V3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>1</v>
+        <v>5705.8925</v>
       </c>
       <c r="X3" t="n">
-        <v>1</v>
+        <v>894.0645</v>
       </c>
       <c r="Y3" t="n">
-        <v>1</v>
+        <v>401.5536</v>
       </c>
       <c r="Z3" t="n">
-        <v>1</v>
+        <v>8551.4285</v>
       </c>
       <c r="AA3" t="n">
-        <v>1</v>
+        <v>1339.6776</v>
       </c>
       <c r="AB3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>1</v>
+        <v>4268.304</v>
       </c>
       <c r="AD3" t="n">
-        <v>1</v>
+        <v>669.8388</v>
       </c>
       <c r="AE3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1211,87 +1211,87 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,50409;31,8232;41,3282</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,75548;31,12335;41,0</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,37708;31,6167;41,0</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,6013;31,985;41,452</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,9012;31,1476;41,0</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,4498;31,738;41,0</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>1</v>
+        <v>50409.37969759999</v>
       </c>
       <c r="O4" t="n">
-        <v>1</v>
+        <v>8232.08666175</v>
       </c>
       <c r="P4" t="n">
-        <v>1</v>
+        <v>3282.65121051</v>
       </c>
       <c r="Q4" t="n">
-        <v>1</v>
+        <v>75548.60281951999</v>
       </c>
       <c r="R4" t="n">
-        <v>1</v>
+        <v>12335.0631884</v>
       </c>
       <c r="S4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>1</v>
+        <v>37708.83468288</v>
       </c>
       <c r="U4" t="n">
-        <v>1</v>
+        <v>6167.5315942</v>
       </c>
       <c r="V4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>1</v>
+        <v>6013.2655352</v>
       </c>
       <c r="X4" t="n">
-        <v>1</v>
+        <v>985.28933475</v>
       </c>
       <c r="Y4" t="n">
-        <v>1</v>
+        <v>452.8819140300001</v>
       </c>
       <c r="Z4" t="n">
-        <v>1</v>
+        <v>9012.08886704</v>
       </c>
       <c r="AA4" t="n">
-        <v>1</v>
+        <v>1476.3700508</v>
       </c>
       <c r="AB4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC4" t="n">
-        <v>1</v>
+        <v>4498.23499776</v>
       </c>
       <c r="AD4" t="n">
-        <v>1</v>
+        <v>738.1850254</v>
       </c>
       <c r="AE4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1318,87 +1318,87 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,53645;31,9192;41,3808</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,80398;31,13774;41,0</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,40129;31,6887;41,0</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,6361;31,1088;41,510</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,9534;31,1631;41,0</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,4758;31,815;41,0</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>1</v>
+        <v>53645.42089060001</v>
       </c>
       <c r="O5" t="n">
-        <v>1</v>
+        <v>9192.784223699999</v>
       </c>
       <c r="P5" t="n">
-        <v>1</v>
+        <v>3808.57744155</v>
       </c>
       <c r="Q5" t="n">
-        <v>1</v>
+        <v>80398.46195812001</v>
       </c>
       <c r="R5" t="n">
-        <v>1</v>
+        <v>13774.58461456</v>
       </c>
       <c r="S5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>1</v>
+        <v>40129.56160128</v>
       </c>
       <c r="U5" t="n">
-        <v>1</v>
+        <v>6887.292307279999</v>
       </c>
       <c r="V5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>1</v>
+        <v>6361.5504337</v>
       </c>
       <c r="X5" t="n">
-        <v>1</v>
+        <v>1088.5736169</v>
       </c>
       <c r="Y5" t="n">
-        <v>1</v>
+        <v>510.92588715</v>
       </c>
       <c r="Z5" t="n">
-        <v>1</v>
+        <v>9534.063896740001</v>
       </c>
       <c r="AA5" t="n">
-        <v>1</v>
+        <v>1631.13253072</v>
       </c>
       <c r="AB5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC5" t="n">
-        <v>1</v>
+        <v>4758.77019456</v>
       </c>
       <c r="AD5" t="n">
-        <v>1</v>
+        <v>815.56626536</v>
       </c>
       <c r="AE5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1425,87 +1425,87 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>21,52226;31,11469;41,4340</t>
+          <t>21,57448;31,10322;41,4427</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>21,52226;31,11469;41,4340</t>
+          <t>21,86098;31,15467;41,0</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>21,26113;31,5734;41,2170</t>
+          <t>21,42974;31,7733;41,0</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>21,6155;31,1344;41,567</t>
+          <t>21,6770;31,1209;41,579</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>21,6155;31,1344;41,567</t>
+          <t>21,10147;31,1813;41,0</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>21,3077;31,672;41,283</t>
+          <t>21,5064;31,906;41,0</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>52226</v>
+        <v>57448.6408573</v>
       </c>
       <c r="O6" t="n">
-        <v>11469</v>
+        <v>10322.851518</v>
       </c>
       <c r="P6" t="n">
-        <v>4340</v>
+        <v>4427.67089436</v>
       </c>
       <c r="Q6" t="n">
-        <v>52226</v>
+        <v>86098.35266146001</v>
       </c>
       <c r="R6" t="n">
-        <v>11469</v>
+        <v>15467.8917984</v>
       </c>
       <c r="S6" t="n">
-        <v>4340</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>26113</v>
+        <v>42974.56770624</v>
       </c>
       <c r="U6" t="n">
-        <v>5734</v>
+        <v>7733.945899199999</v>
       </c>
       <c r="V6" t="n">
-        <v>2170</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>6155</v>
+        <v>6770.61046585</v>
       </c>
       <c r="X6" t="n">
-        <v>1344</v>
+        <v>1209.995766</v>
       </c>
       <c r="Y6" t="n">
-        <v>567</v>
+        <v>579.2426530800001</v>
       </c>
       <c r="Z6" t="n">
-        <v>6155</v>
+        <v>10147.12269817</v>
       </c>
       <c r="AA6" t="n">
-        <v>1344</v>
+        <v>1813.0730208</v>
       </c>
       <c r="AB6" t="n">
-        <v>567</v>
+        <v>0</v>
       </c>
       <c r="AC6" t="n">
-        <v>3077</v>
+        <v>5064.76834848</v>
       </c>
       <c r="AD6" t="n">
-        <v>672</v>
+        <v>906.5365104</v>
       </c>
       <c r="AE6" t="n">
-        <v>283</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1532,87 +1532,87 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>21,57826;31,12914;41,5608</t>
+          <t>21,63609;31,11623;41,5720</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>21,57826;31,12914;41,5608</t>
+          <t>21,95331;31,17416;41,0</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>21,28913;31,6457;41,2804</t>
+          <t>21,47582;31,8708;41,0</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>21,6763;31,1501;41,708</t>
+          <t>21,7440;31,1351;41,722</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>21,6763;31,1501;41,708</t>
+          <t>21,11150;31,2024;41,0</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>21,3381;31,750;41,354</t>
+          <t>21,5565;31,1012;41,0</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>57826</v>
+        <v>63609.1292837</v>
       </c>
       <c r="O7" t="n">
-        <v>12914</v>
+        <v>11623.3261767</v>
       </c>
       <c r="P7" t="n">
-        <v>5608</v>
+        <v>5720.39782881</v>
       </c>
       <c r="Q7" t="n">
-        <v>57826</v>
+        <v>95331.08466674</v>
       </c>
       <c r="R7" t="n">
-        <v>12914</v>
+        <v>17416.53954096</v>
       </c>
       <c r="S7" t="n">
-        <v>5608</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>28913</v>
+        <v>47582.93307456</v>
       </c>
       <c r="U7" t="n">
-        <v>6457</v>
+        <v>8708.269770479999</v>
       </c>
       <c r="V7" t="n">
-        <v>2804</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>6763</v>
+        <v>7440.17677865</v>
       </c>
       <c r="X7" t="n">
-        <v>1501</v>
+        <v>1351.2424779</v>
       </c>
       <c r="Y7" t="n">
-        <v>708</v>
+        <v>722.8062939300002</v>
       </c>
       <c r="Z7" t="n">
-        <v>6763</v>
+        <v>11150.60260073</v>
       </c>
       <c r="AA7" t="n">
-        <v>1501</v>
+        <v>2024.71888752</v>
       </c>
       <c r="AB7" t="n">
-        <v>708</v>
+        <v>0</v>
       </c>
       <c r="AC7" t="n">
-        <v>3381</v>
+        <v>5565.638733119999</v>
       </c>
       <c r="AD7" t="n">
-        <v>750</v>
+        <v>1012.35944376</v>
       </c>
       <c r="AE7" t="n">
-        <v>354</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1639,87 +1639,87 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>21,65070;31,14548;41,7361</t>
+          <t>21,71577;31,13093;41,7508</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>21,65070;31,14548;41,7361</t>
+          <t>21,107274;31,19619;41,0</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>21,32535;31,7274;41,3680</t>
+          <t>21,53544;31,9809;41,0</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>21,7547;31,1677;41,902</t>
+          <t>21,8302;31,1510;41,920</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>21,7547;31,1677;41,902</t>
+          <t>21,12443;31,2262;41,0</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>21,3773;31,838;41,451</t>
+          <t>21,6210;31,1131;41,0</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>65070</v>
+        <v>71577.9915543</v>
       </c>
       <c r="O8" t="n">
-        <v>14548</v>
+        <v>13093.2669357</v>
       </c>
       <c r="P8" t="n">
-        <v>7361</v>
+        <v>7508.545258620001</v>
       </c>
       <c r="Q8" t="n">
-        <v>65070</v>
+        <v>107274.02890086</v>
       </c>
       <c r="R8" t="n">
-        <v>14548</v>
+        <v>19619.11744016</v>
       </c>
       <c r="S8" t="n">
-        <v>7361</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>32535</v>
+        <v>53544.05601984</v>
       </c>
       <c r="U8" t="n">
-        <v>7274</v>
+        <v>9809.558720079998</v>
       </c>
       <c r="V8" t="n">
-        <v>3680</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>7547</v>
+        <v>8302.64747235</v>
       </c>
       <c r="X8" t="n">
-        <v>1677</v>
+        <v>1510.0743609</v>
       </c>
       <c r="Y8" t="n">
-        <v>902</v>
+        <v>920.9757408600001</v>
       </c>
       <c r="Z8" t="n">
-        <v>7547</v>
+        <v>12443.18854947</v>
       </c>
       <c r="AA8" t="n">
-        <v>1677</v>
+        <v>2262.71459792</v>
       </c>
       <c r="AB8" t="n">
-        <v>902</v>
+        <v>0</v>
       </c>
       <c r="AC8" t="n">
-        <v>3773</v>
+        <v>6210.81161568</v>
       </c>
       <c r="AD8" t="n">
-        <v>838</v>
+        <v>1131.35729896</v>
       </c>
       <c r="AE8" t="n">
-        <v>451</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1746,87 +1746,87 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>21,74388;31,16431;41,9720</t>
+          <t>21,81827;31,14788;41,9915</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>21,74388;31,16431;41,9720</t>
+          <t>21,122635;31,22159;41,0</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>21,37194;31,8215;41,4860</t>
+          <t>21,61211;31,11079;41,0</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>21,8552;31,1880;41,1163</t>
+          <t>21,9407;31,1692;41,1187</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>21,8552;31,1880;41,1163</t>
+          <t>21,14099;31,2535;41,0</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>21,4276;31,940;41,581</t>
+          <t>21,7037;31,1267;41,0</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>74388</v>
+        <v>81827.54074880001</v>
       </c>
       <c r="O9" t="n">
-        <v>16431</v>
+        <v>14788.54112715</v>
       </c>
       <c r="P9" t="n">
-        <v>9720</v>
+        <v>9915.122024849999</v>
       </c>
       <c r="Q9" t="n">
-        <v>74388</v>
+        <v>122635.04158976</v>
       </c>
       <c r="R9" t="n">
-        <v>16431</v>
+        <v>22159.33781592</v>
       </c>
       <c r="S9" t="n">
-        <v>9720</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>37194</v>
+        <v>61211.25126144</v>
       </c>
       <c r="U9" t="n">
-        <v>8215</v>
+        <v>11079.66890796</v>
       </c>
       <c r="V9" t="n">
-        <v>4860</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>8552</v>
+        <v>9407.6350676</v>
       </c>
       <c r="X9" t="n">
-        <v>1880</v>
+        <v>1692.38083455</v>
       </c>
       <c r="Y9" t="n">
-        <v>1163</v>
+        <v>1187.03951205</v>
       </c>
       <c r="Z9" t="n">
-        <v>8552</v>
+        <v>14099.23489352</v>
       </c>
       <c r="AA9" t="n">
-        <v>1880</v>
+        <v>2535.88493304</v>
       </c>
       <c r="AB9" t="n">
-        <v>1163</v>
+        <v>0</v>
       </c>
       <c r="AC9" t="n">
-        <v>4276</v>
+        <v>7037.39973888</v>
       </c>
       <c r="AD9" t="n">
-        <v>940</v>
+        <v>1267.94246652</v>
       </c>
       <c r="AE9" t="n">
-        <v>581</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1853,87 +1853,87 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>21,81369;31,17436;41,11685</t>
+          <t>21,89506;31,15692;41,11919</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>21,81369;31,17436;41,11685</t>
+          <t>21,134143;31,23513;41,0</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>21,40684;31,8718;41,5842</t>
+          <t>21,66955;31,11756;41,0</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>21,9304;31,1988;41,1380</t>
+          <t>21,10235;31,1789;41,1408</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>21,9304;31,1988;41,1380</t>
+          <t>21,15339;31,2681;41,0</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>21,4652;31,994;41,690</t>
+          <t>21,7656;31,1340;41,0</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>81369</v>
+        <v>89506.46782769999</v>
       </c>
       <c r="O10" t="n">
-        <v>17436</v>
+        <v>15692.487489</v>
       </c>
       <c r="P10" t="n">
-        <v>11685</v>
+        <v>11919.26701749</v>
       </c>
       <c r="Q10" t="n">
-        <v>81369</v>
+        <v>134143.45957554</v>
       </c>
       <c r="R10" t="n">
-        <v>17436</v>
+        <v>23513.8225232</v>
       </c>
       <c r="S10" t="n">
-        <v>11685</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>40684</v>
+        <v>66955.48762176</v>
       </c>
       <c r="U10" t="n">
-        <v>8718</v>
+        <v>11756.9112616</v>
       </c>
       <c r="V10" t="n">
-        <v>5842</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>9304</v>
+        <v>10235.46496665</v>
       </c>
       <c r="X10" t="n">
-        <v>1988</v>
+        <v>1789.540893</v>
       </c>
       <c r="Y10" t="n">
-        <v>1380</v>
+        <v>1408.59176997</v>
       </c>
       <c r="Z10" t="n">
-        <v>9304</v>
+        <v>15339.90463833</v>
       </c>
       <c r="AA10" t="n">
-        <v>1988</v>
+        <v>2681.4707984</v>
       </c>
       <c r="AB10" t="n">
-        <v>1380</v>
+        <v>0</v>
       </c>
       <c r="AC10" t="n">
-        <v>4652</v>
+        <v>7656.65950752</v>
       </c>
       <c r="AD10" t="n">
-        <v>994</v>
+        <v>1340.7353992</v>
       </c>
       <c r="AE10" t="n">
-        <v>690</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1960,87 +1960,87 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>21,89884;31,18628;41,14097</t>
+          <t>21,98872;31,16765;41,14379</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>21,89884;31,18628;41,14097</t>
+          <t>21,148180;31,25121;41,0</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>21,44942;31,9314;41,7048</t>
+          <t>21,73961;31,12560;41,0</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>21,10221;31,2116;41,1647</t>
+          <t>21,11243;31,1904;41,1680</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>21,10221;31,2116;41,1647</t>
+          <t>21,16851;31,2854;41,0</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>21,5110;31,1058;41,823</t>
+          <t>21,8410;31,1427;41,0</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>89884</v>
+        <v>98872.5338986</v>
       </c>
       <c r="O11" t="n">
-        <v>18628</v>
+        <v>16765.6775832</v>
       </c>
       <c r="P11" t="n">
-        <v>14097</v>
+        <v>14379.64144533</v>
       </c>
       <c r="Q11" t="n">
-        <v>89884</v>
+        <v>148180.39495972</v>
       </c>
       <c r="R11" t="n">
-        <v>18628</v>
+        <v>25121.90418816</v>
       </c>
       <c r="S11" t="n">
-        <v>14097</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>44942</v>
+        <v>73961.79159168</v>
       </c>
       <c r="U11" t="n">
-        <v>9314</v>
+        <v>12560.95209408</v>
       </c>
       <c r="V11" t="n">
-        <v>7048</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>10221</v>
+        <v>11243.7783997</v>
       </c>
       <c r="X11" t="n">
-        <v>2116</v>
+        <v>1904.7128184</v>
       </c>
       <c r="Y11" t="n">
-        <v>1647</v>
+        <v>1680.35993349</v>
       </c>
       <c r="Z11" t="n">
-        <v>10221</v>
+        <v>16851.06528994</v>
       </c>
       <c r="AA11" t="n">
-        <v>2116</v>
+        <v>2854.04587392</v>
       </c>
       <c r="AB11" t="n">
-        <v>1647</v>
+        <v>0</v>
       </c>
       <c r="AC11" t="n">
-        <v>5110</v>
+        <v>8410.930335359999</v>
       </c>
       <c r="AD11" t="n">
-        <v>1058</v>
+        <v>1427.02293696</v>
       </c>
       <c r="AE11" t="n">
-        <v>823</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -2067,87 +2067,87 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>21,105571;31,21138;41,18390</t>
+          <t>21,116129;31,19024;41,18758</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>21,105571;31,21138;41,18390</t>
+          <t>21,174042;31,28506;41,0</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>21,52785;31,10569;41,9195</t>
+          <t>21,86870;31,14253;41,0</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>21,11908;31,2385;41,2121</t>
+          <t>21,13098;31,2147;41,2163</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>21,11908;31,2385;41,2121</t>
+          <t>21,19631;31,3217;41,0</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>21,5954;31,1192;41,1060</t>
+          <t>21,9798;31,1608;41,0</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>105571</v>
+        <v>116129.0075946</v>
       </c>
       <c r="O12" t="n">
-        <v>21138</v>
+        <v>19024.61330385</v>
       </c>
       <c r="P12" t="n">
-        <v>18390</v>
+        <v>18758.04361935</v>
       </c>
       <c r="Q12" t="n">
-        <v>105571</v>
+        <v>174042.69449892</v>
       </c>
       <c r="R12" t="n">
-        <v>21138</v>
+        <v>28506.72215688</v>
       </c>
       <c r="S12" t="n">
-        <v>18390</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>52785</v>
+        <v>86870.53035648</v>
       </c>
       <c r="U12" t="n">
-        <v>10569</v>
+        <v>14253.36107844</v>
       </c>
       <c r="V12" t="n">
-        <v>9195</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>11908</v>
+        <v>13098.8851917</v>
       </c>
       <c r="X12" t="n">
-        <v>2385</v>
+        <v>2147.00731245</v>
       </c>
       <c r="Y12" t="n">
-        <v>2121</v>
+        <v>2163.44897055</v>
       </c>
       <c r="Z12" t="n">
-        <v>11908</v>
+        <v>19631.31624834</v>
       </c>
       <c r="AA12" t="n">
-        <v>2385</v>
+        <v>3217.10302056</v>
       </c>
       <c r="AB12" t="n">
-        <v>2121</v>
+        <v>0</v>
       </c>
       <c r="AC12" t="n">
-        <v>5954</v>
+        <v>9798.646584959999</v>
       </c>
       <c r="AD12" t="n">
-        <v>1192</v>
+        <v>1608.55151028</v>
       </c>
       <c r="AE12" t="n">
-        <v>1060</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -2174,87 +2174,87 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>21,108002;31,21642;41,18998</t>
+          <t>21,118803;31,19478;41,19378</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>21,108002;31,21642;41,18998</t>
+          <t>21,178050;31,29186;41,0</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>21,54001;31,10821;41,9499</t>
+          <t>21,88870;31,14593;41,0</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>21,12178;31,2441;41,2189</t>
+          <t>21,13395;31,2197;41,2233</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>21,12178;31,2441;41,2189</t>
+          <t>21,20076;31,3292;41,0</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>21,6089;31,1220;41,1094</t>
+          <t>21,10020;31,1646;41,0</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>108002</v>
+        <v>118803.1579042</v>
       </c>
       <c r="O13" t="n">
-        <v>21642</v>
+        <v>19478.55616875</v>
       </c>
       <c r="P13" t="n">
-        <v>18998</v>
+        <v>19378.81497216</v>
       </c>
       <c r="Q13" t="n">
-        <v>108002</v>
+        <v>178050.44704084</v>
       </c>
       <c r="R13" t="n">
-        <v>21642</v>
+        <v>29186.91591</v>
       </c>
       <c r="S13" t="n">
-        <v>18998</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>54001</v>
+        <v>88870.93370496</v>
       </c>
       <c r="U13" t="n">
-        <v>10821</v>
+        <v>14593.457955</v>
       </c>
       <c r="V13" t="n">
-        <v>9499</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>12178</v>
+        <v>13395.8680009</v>
       </c>
       <c r="X13" t="n">
-        <v>2441</v>
+        <v>2197.23249375</v>
       </c>
       <c r="Y13" t="n">
-        <v>2189</v>
+        <v>2233.44363648</v>
       </c>
       <c r="Z13" t="n">
-        <v>12178</v>
+        <v>20076.40477018</v>
       </c>
       <c r="AA13" t="n">
-        <v>2441</v>
+        <v>3292.36107</v>
       </c>
       <c r="AB13" t="n">
-        <v>2189</v>
+        <v>0</v>
       </c>
       <c r="AC13" t="n">
-        <v>6089</v>
+        <v>10020.80515392</v>
       </c>
       <c r="AD13" t="n">
-        <v>1220</v>
+        <v>1646.180535</v>
       </c>
       <c r="AE13" t="n">
-        <v>1094</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -2281,87 +2281,87 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>21,110433;31,22146;41,19607</t>
+          <t>21,121477;31,19931;41,19999</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>21,110433;31,22146;41,19607</t>
+          <t>21,182058;31,29865;41,0</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>21,55216;31,11073;41,9803</t>
+          <t>21,90871;31,14932;41,0</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>21,12448;31,2497;41,2258</t>
+          <t>21,13692;31,2247;41,2303</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>21,12448;31,2497;41,2258</t>
+          <t>21,20521;31,3367;41,0</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>21,6224;31,1248;41,1129</t>
+          <t>21,10242;31,1683;41,0</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>110433</v>
+        <v>121477.3082138</v>
       </c>
       <c r="O14" t="n">
-        <v>22146</v>
+        <v>19931.7411657</v>
       </c>
       <c r="P14" t="n">
-        <v>19607</v>
+        <v>19999.31490858</v>
       </c>
       <c r="Q14" t="n">
-        <v>110433</v>
+        <v>182058.19958276</v>
       </c>
       <c r="R14" t="n">
-        <v>22146</v>
+        <v>29865.97406416</v>
       </c>
       <c r="S14" t="n">
-        <v>19607</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>55216</v>
+        <v>90871.33705344</v>
       </c>
       <c r="U14" t="n">
-        <v>11073</v>
+        <v>14932.98703208</v>
       </c>
       <c r="V14" t="n">
-        <v>9803</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>12448</v>
+        <v>13692.8508101</v>
       </c>
       <c r="X14" t="n">
-        <v>2497</v>
+        <v>2247.3488709</v>
       </c>
       <c r="Y14" t="n">
-        <v>2258</v>
+        <v>2303.40856074</v>
       </c>
       <c r="Z14" t="n">
-        <v>12448</v>
+        <v>20521.49329202</v>
       </c>
       <c r="AA14" t="n">
-        <v>2497</v>
+        <v>3367.45608592</v>
       </c>
       <c r="AB14" t="n">
-        <v>2258</v>
+        <v>0</v>
       </c>
       <c r="AC14" t="n">
-        <v>6224</v>
+        <v>10242.96372288</v>
       </c>
       <c r="AD14" t="n">
-        <v>1248</v>
+        <v>1683.72804296</v>
       </c>
       <c r="AE14" t="n">
-        <v>1129</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -2388,87 +2388,87 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>21,112864;31,22650;41,20215</t>
+          <t>21,124151;31,20385;41,20619</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>21,112864;31,22650;41,20215</t>
+          <t>21,186065;31,30546;41,0</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>21,56432;31,11325;41,10107</t>
+          <t>21,92871;31,15273;41,0</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>21,12718;31,2552;41,2326</t>
+          <t>21,13989;31,2297;41,2373</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>21,12718;31,2552;41,2326</t>
+          <t>21,20966;31,3442;41,0</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>21,6359;31,1276;41,1163</t>
+          <t>21,10465;31,1721;41,0</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>112864</v>
+        <v>124151.4585234</v>
       </c>
       <c r="O15" t="n">
-        <v>22650</v>
+        <v>20385.6840306</v>
       </c>
       <c r="P15" t="n">
-        <v>20215</v>
+        <v>20619.779145</v>
       </c>
       <c r="Q15" t="n">
-        <v>112864</v>
+        <v>186065.95212468</v>
       </c>
       <c r="R15" t="n">
-        <v>22650</v>
+        <v>30546.16781728</v>
       </c>
       <c r="S15" t="n">
-        <v>20215</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>56432</v>
+        <v>92871.74040191999</v>
       </c>
       <c r="U15" t="n">
-        <v>11325</v>
+        <v>15273.08390864</v>
       </c>
       <c r="V15" t="n">
-        <v>10107</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>12718</v>
+        <v>13989.8336193</v>
       </c>
       <c r="X15" t="n">
-        <v>2552</v>
+        <v>2297.5740522</v>
       </c>
       <c r="Y15" t="n">
-        <v>2326</v>
+        <v>2373.337785</v>
       </c>
       <c r="Z15" t="n">
-        <v>12718</v>
+        <v>20966.58181386</v>
       </c>
       <c r="AA15" t="n">
-        <v>2552</v>
+        <v>3442.71413536</v>
       </c>
       <c r="AB15" t="n">
-        <v>2326</v>
+        <v>0</v>
       </c>
       <c r="AC15" t="n">
-        <v>6359</v>
+        <v>10465.12229184</v>
       </c>
       <c r="AD15" t="n">
-        <v>1276</v>
+        <v>1721.35706768</v>
       </c>
       <c r="AE15" t="n">
-        <v>1163</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -2495,87 +2495,87 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>21,115291;31,23154;41,20824</t>
+          <t>21,126820;31,20838;41,21240</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>21,115291;31,23154;41,20824</t>
+          <t>21,190066;31,31225;41,0</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>21,57645;31,11577;41,10412</t>
+          <t>21,94868;31,15612;41,0</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>21,12987;31,2608;41,2395</t>
+          <t>21,14286;31,2347;41,2443</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>21,12987;31,2608;41,2395</t>
+          <t>21,21410;31,3517;41,0</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>21,6493;31,1304;41,1197</t>
+          <t>21,10686;31,1758;41,0</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>115291</v>
+        <v>126820.9637233</v>
       </c>
       <c r="O16" t="n">
-        <v>23154</v>
+        <v>20838.90052755</v>
       </c>
       <c r="P16" t="n">
-        <v>20824</v>
+        <v>21240.55049781</v>
       </c>
       <c r="Q16" t="n">
-        <v>115291</v>
+        <v>190066.74303466</v>
       </c>
       <c r="R16" t="n">
-        <v>23154</v>
+        <v>31225.27317144</v>
       </c>
       <c r="S16" t="n">
-        <v>20824</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>57645</v>
+        <v>94868.66896703999</v>
       </c>
       <c r="U16" t="n">
-        <v>11577</v>
+        <v>15612.63658572</v>
       </c>
       <c r="V16" t="n">
-        <v>10412</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>12987</v>
+        <v>14286.35647285</v>
       </c>
       <c r="X16" t="n">
-        <v>2608</v>
+        <v>2347.72192935</v>
       </c>
       <c r="Y16" t="n">
-        <v>2395</v>
+        <v>2443.33245093</v>
       </c>
       <c r="Z16" t="n">
-        <v>12987</v>
+        <v>21410.98099957</v>
       </c>
       <c r="AA16" t="n">
-        <v>2608</v>
+        <v>3517.85635128</v>
       </c>
       <c r="AB16" t="n">
-        <v>2395</v>
+        <v>0</v>
       </c>
       <c r="AC16" t="n">
-        <v>6493</v>
+        <v>10686.93679008</v>
       </c>
       <c r="AD16" t="n">
-        <v>1304</v>
+        <v>1758.92817564</v>
       </c>
       <c r="AE16" t="n">
-        <v>1197</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2602,87 +2602,87 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>21,117722;31,23658;41,21432</t>
+          <t>21,129495;31,21292;41,21861</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>21,117722;31,23658;41,21432</t>
+          <t>21,194074;31,31905;41,0</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>21,58861;31,11829;41,10716</t>
+          <t>21,96869;31,15952;41,0</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>21,13257;31,2664;41,2463</t>
+          <t>21,14583;31,2397;41,2513</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>21,13257;31,2664;41,2463</t>
+          <t>21,21856;31,3593;41,0</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>21,6628;31,1332;41,1231</t>
+          <t>21,10909;31,1796;41,0</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>117722</v>
+        <v>129495.1140329</v>
       </c>
       <c r="O17" t="n">
-        <v>23658</v>
+        <v>21292.81189245</v>
       </c>
       <c r="P17" t="n">
-        <v>21432</v>
+        <v>21861.01473423</v>
       </c>
       <c r="Q17" t="n">
-        <v>117722</v>
+        <v>194074.49557658</v>
       </c>
       <c r="R17" t="n">
-        <v>23658</v>
+        <v>31905.41972456</v>
       </c>
       <c r="S17" t="n">
-        <v>21432</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>58861</v>
+        <v>96869.07231552</v>
       </c>
       <c r="U17" t="n">
-        <v>11829</v>
+        <v>15952.70986228</v>
       </c>
       <c r="V17" t="n">
-        <v>10716</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>13257</v>
+        <v>14583.33928205</v>
       </c>
       <c r="X17" t="n">
-        <v>2664</v>
+        <v>2397.91561065</v>
       </c>
       <c r="Y17" t="n">
-        <v>2463</v>
+        <v>2513.26167519</v>
       </c>
       <c r="Z17" t="n">
-        <v>13257</v>
+        <v>21856.06952141</v>
       </c>
       <c r="AA17" t="n">
-        <v>2664</v>
+        <v>3593.06720072</v>
       </c>
       <c r="AB17" t="n">
-        <v>2463</v>
+        <v>0</v>
       </c>
       <c r="AC17" t="n">
-        <v>6628</v>
+        <v>10909.09535904</v>
       </c>
       <c r="AD17" t="n">
-        <v>1332</v>
+        <v>1796.53360036</v>
       </c>
       <c r="AE17" t="n">
-        <v>1231</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5107,141 +5107,141 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>7019</v>
+        <v>7251</v>
       </c>
       <c r="C2" t="n">
-        <v>1515</v>
+        <v>1192</v>
       </c>
       <c r="D2" t="n">
-        <v>888</v>
+        <v>1226</v>
       </c>
       <c r="E2" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F2" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G2" t="n">
         <v>40</v>
       </c>
       <c r="H2" t="n">
-        <v>7019</v>
+        <v>10330</v>
       </c>
       <c r="I2" t="n">
-        <v>1515</v>
+        <v>1698</v>
       </c>
       <c r="J2" t="n">
-        <v>888</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="L2" t="n">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="M2" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>3509</v>
+        <v>5165</v>
       </c>
       <c r="O2" t="n">
-        <v>757</v>
+        <v>849</v>
       </c>
       <c r="P2" t="n">
-        <v>444</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="R2" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="S2" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>5003</v>
+        <v>3782</v>
       </c>
       <c r="U2" t="n">
-        <v>874</v>
+        <v>660</v>
       </c>
       <c r="V2" t="n">
-        <v>727</v>
+        <v>484</v>
       </c>
       <c r="W2" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="X2" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="Y2" t="n">
         <v>35</v>
       </c>
       <c r="Z2" t="n">
-        <v>5003</v>
+        <v>5388</v>
       </c>
       <c r="AA2" t="n">
-        <v>874</v>
+        <v>940</v>
       </c>
       <c r="AB2" t="n">
-        <v>727</v>
+        <v>0</v>
       </c>
       <c r="AC2" t="n">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="AD2" t="n">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="AE2" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="AF2" t="n">
-        <v>2501</v>
+        <v>2694</v>
       </c>
       <c r="AG2" t="n">
-        <v>437</v>
+        <v>470</v>
       </c>
       <c r="AH2" t="n">
-        <v>363</v>
+        <v>0</v>
       </c>
       <c r="AI2" t="n">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="AJ2" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AK2" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>21,7019;31,1515;41,888;22,40;32,40;42,40</t>
+          <t>21,7251;31,1192;41,1226;22,44;32,36;42,40</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>21,7019;31,1515;41,888;22,40;32,40;42,40</t>
+          <t>21,10330;31,1698;41,0;22,66;32,54;42,0</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>21,3509;31,757;41,444;22,20;32,20;42,20</t>
+          <t>21,5165;31,849;41,0;22,33;32,27;42,0</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>21,5003;31,874;41,727;22,35;32,35;42,35</t>
+          <t>21,3782;31,660;41,484;22,38;32,31;42,35</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>21,5003;31,874;41,727;22,35;32,35;42,35</t>
+          <t>21,5388;31,940;41,0;22,57;32,47;42,0</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
-          <t>21,2501;31,437;41,363;22,17;32,17;42,17</t>
+          <t>21,2694;31,470;41,0;22,28;32,22;42,0</t>
         </is>
       </c>
     </row>
@@ -5250,141 +5250,141 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>14059</v>
+        <v>14503</v>
       </c>
       <c r="C3" t="n">
-        <v>2916</v>
+        <v>2384</v>
       </c>
       <c r="D3" t="n">
-        <v>1910</v>
+        <v>2453</v>
       </c>
       <c r="E3" t="n">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="F3" t="n">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G3" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H3" t="n">
-        <v>14059</v>
+        <v>20661</v>
       </c>
       <c r="I3" t="n">
-        <v>2916</v>
+        <v>3397</v>
       </c>
       <c r="J3" t="n">
-        <v>1910</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>80</v>
+        <v>132</v>
       </c>
       <c r="L3" t="n">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="M3" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>7029</v>
+        <v>10330</v>
       </c>
       <c r="O3" t="n">
-        <v>1458</v>
+        <v>1698</v>
       </c>
       <c r="P3" t="n">
-        <v>955</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="R3" t="n">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="S3" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>5241</v>
+        <v>4335</v>
       </c>
       <c r="U3" t="n">
-        <v>915</v>
+        <v>734</v>
       </c>
       <c r="V3" t="n">
-        <v>768</v>
+        <v>604</v>
       </c>
       <c r="W3" t="n">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="X3" t="n">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="Y3" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z3" t="n">
-        <v>5241</v>
+        <v>6176</v>
       </c>
       <c r="AA3" t="n">
-        <v>915</v>
+        <v>1045</v>
       </c>
       <c r="AB3" t="n">
-        <v>768</v>
+        <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>70</v>
+        <v>115</v>
       </c>
       <c r="AD3" t="n">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="AE3" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AF3" t="n">
-        <v>2620</v>
+        <v>3088</v>
       </c>
       <c r="AG3" t="n">
-        <v>457</v>
+        <v>522</v>
       </c>
       <c r="AH3" t="n">
-        <v>384</v>
+        <v>0</v>
       </c>
       <c r="AI3" t="n">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="AJ3" t="n">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="AK3" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>21,14059;31,2916;41,1910;22,80;32,80;42,80</t>
+          <t>21,14503;31,2384;41,2453;22,88;32,72;42,81</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>21,14059;31,2916;41,1910;22,80;32,80;42,80</t>
+          <t>21,20661;31,3397;41,0;22,132;32,108;42,0</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>21,7029;31,1458;41,955;22,40;32,40;42,40</t>
+          <t>21,10330;31,1698;41,0;22,66;32,54;42,0</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>21,5241;31,915;41,768;22,70;32,70;42,70</t>
+          <t>21,4335;31,734;41,604;22,77;32,63;42,71</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>21,5241;31,915;41,768;22,70;32,70;42,70</t>
+          <t>21,6176;31,1045;41,0;22,115;32,94;42,0</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>21,2620;31,457;41,384;22,35;32,35;42,35</t>
+          <t>21,3088;31,522;41,0;22,57;32,47;42,0</t>
         </is>
       </c>
     </row>
@@ -5393,141 +5393,141 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>20854</v>
+        <v>21755</v>
       </c>
       <c r="C4" t="n">
-        <v>4183</v>
+        <v>3576</v>
       </c>
       <c r="D4" t="n">
-        <v>3117</v>
+        <v>3680</v>
       </c>
       <c r="E4" t="n">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="F4" t="n">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="G4" t="n">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="H4" t="n">
-        <v>20854</v>
+        <v>30992</v>
       </c>
       <c r="I4" t="n">
-        <v>4183</v>
+        <v>5096</v>
       </c>
       <c r="J4" t="n">
-        <v>3117</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>120</v>
+        <v>198</v>
       </c>
       <c r="L4" t="n">
-        <v>120</v>
+        <v>162</v>
       </c>
       <c r="M4" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>10427</v>
+        <v>15496</v>
       </c>
       <c r="O4" t="n">
-        <v>2091</v>
+        <v>2547</v>
       </c>
       <c r="P4" t="n">
-        <v>1558</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="R4" t="n">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="S4" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>5490</v>
+        <v>5266</v>
       </c>
       <c r="U4" t="n">
-        <v>959</v>
+        <v>863</v>
       </c>
       <c r="V4" t="n">
-        <v>812</v>
+        <v>815</v>
       </c>
       <c r="W4" t="n">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="X4" t="n">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="Y4" t="n">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="Z4" t="n">
-        <v>5490</v>
+        <v>7502</v>
       </c>
       <c r="AA4" t="n">
-        <v>959</v>
+        <v>1230</v>
       </c>
       <c r="AB4" t="n">
-        <v>812</v>
+        <v>0</v>
       </c>
       <c r="AC4" t="n">
-        <v>105</v>
+        <v>173</v>
       </c>
       <c r="AD4" t="n">
-        <v>105</v>
+        <v>141</v>
       </c>
       <c r="AE4" t="n">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="AF4" t="n">
-        <v>2745</v>
+        <v>3751</v>
       </c>
       <c r="AG4" t="n">
-        <v>479</v>
+        <v>615</v>
       </c>
       <c r="AH4" t="n">
-        <v>406</v>
+        <v>0</v>
       </c>
       <c r="AI4" t="n">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="AJ4" t="n">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="AK4" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>21,20854;31,4183;41,3117;22,120;32,120;42,120</t>
+          <t>21,21755;31,3576;41,3680;22,132;32,108;42,122</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>21,20854;31,4183;41,3117;22,120;32,120;42,120</t>
+          <t>21,30992;31,5096;41,0;22,198;32,162;42,0</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>21,10427;31,2091;41,1558;22,60;32,60;42,60</t>
+          <t>21,15496;31,2547;41,0;22,99;32,81;42,0</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>21,5490;31,959;41,812;22,105;32,105;42,105</t>
+          <t>21,5266;31,863;41,815;22,115;32,94;42,107</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>21,5490;31,959;41,812;22,105;32,105;42,105</t>
+          <t>21,7502;31,1230;41,0;22,173;32,141;42,0</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>21,2745;31,479;41,406;22,52;32,52;42,52</t>
+          <t>21,3751;31,615;41,0;22,85;32,70;42,0</t>
         </is>
       </c>
     </row>
@@ -5536,141 +5536,141 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>27714</v>
+        <v>29006</v>
       </c>
       <c r="C5" t="n">
-        <v>5560</v>
+        <v>4769</v>
       </c>
       <c r="D5" t="n">
-        <v>4198</v>
+        <v>4907</v>
       </c>
       <c r="E5" t="n">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="F5" t="n">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="G5" t="n">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="H5" t="n">
-        <v>27714</v>
+        <v>41323</v>
       </c>
       <c r="I5" t="n">
-        <v>5560</v>
+        <v>6794</v>
       </c>
       <c r="J5" t="n">
-        <v>4198</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>160</v>
+        <v>264</v>
       </c>
       <c r="L5" t="n">
-        <v>160</v>
+        <v>216</v>
       </c>
       <c r="M5" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>13857</v>
+        <v>20661</v>
       </c>
       <c r="O5" t="n">
-        <v>2780</v>
+        <v>3397</v>
       </c>
       <c r="P5" t="n">
-        <v>2099</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>80</v>
+        <v>132</v>
       </c>
       <c r="R5" t="n">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="S5" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>5881</v>
+        <v>5640</v>
       </c>
       <c r="U5" t="n">
-        <v>1026</v>
+        <v>925</v>
       </c>
       <c r="V5" t="n">
-        <v>883</v>
+        <v>888</v>
       </c>
       <c r="W5" t="n">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="X5" t="n">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="Y5" t="n">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Z5" t="n">
-        <v>5881</v>
+        <v>8035</v>
       </c>
       <c r="AA5" t="n">
-        <v>1026</v>
+        <v>1318</v>
       </c>
       <c r="AB5" t="n">
-        <v>883</v>
+        <v>0</v>
       </c>
       <c r="AC5" t="n">
-        <v>140</v>
+        <v>231</v>
       </c>
       <c r="AD5" t="n">
-        <v>140</v>
+        <v>189</v>
       </c>
       <c r="AE5" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="AF5" t="n">
-        <v>2940</v>
+        <v>4017</v>
       </c>
       <c r="AG5" t="n">
-        <v>513</v>
+        <v>659</v>
       </c>
       <c r="AH5" t="n">
-        <v>441</v>
+        <v>0</v>
       </c>
       <c r="AI5" t="n">
-        <v>70</v>
+        <v>115</v>
       </c>
       <c r="AJ5" t="n">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="AK5" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>21,27714;31,5560;41,4198;22,160;32,160;42,160</t>
+          <t>21,29006;31,4769;41,4907;22,176;32,144;42,163</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>21,27714;31,5560;41,4198;22,160;32,160;42,160</t>
+          <t>21,41323;31,6794;41,0;22,264;32,216;42,0</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>21,13857;31,2780;41,2099;22,80;32,80;42,80</t>
+          <t>21,20661;31,3397;41,0;22,132;32,108;42,0</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>21,5881;31,1026;41,883;22,140;32,140;42,140</t>
+          <t>21,5640;31,925;41,888;22,154;32,126;42,143</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>21,5881;31,1026;41,883;22,140;32,140;42,140</t>
+          <t>21,8035;31,1318;41,0;22,231;32,189;42,0</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>21,2940;31,513;41,441;22,70;32,70;42,70</t>
+          <t>21,4017;31,659;41,0;22,115;32,94;42,0</t>
         </is>
       </c>
     </row>
@@ -5679,141 +5679,141 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>34535</v>
+        <v>36258</v>
       </c>
       <c r="C6" t="n">
-        <v>6930</v>
+        <v>5961</v>
       </c>
       <c r="D6" t="n">
-        <v>5301</v>
+        <v>6134</v>
       </c>
       <c r="E6" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="F6" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="G6" t="n">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="H6" t="n">
-        <v>34535</v>
+        <v>51654</v>
       </c>
       <c r="I6" t="n">
-        <v>6930</v>
+        <v>8493</v>
       </c>
       <c r="J6" t="n">
-        <v>5301</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>200</v>
+        <v>330</v>
       </c>
       <c r="L6" t="n">
-        <v>200</v>
+        <v>270</v>
       </c>
       <c r="M6" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>17267</v>
+        <v>25827</v>
       </c>
       <c r="O6" t="n">
-        <v>3465</v>
+        <v>4246</v>
       </c>
       <c r="P6" t="n">
-        <v>2650</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>100</v>
+        <v>165</v>
       </c>
       <c r="R6" t="n">
-        <v>100</v>
+        <v>135</v>
       </c>
       <c r="S6" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>6161</v>
+        <v>6039</v>
       </c>
       <c r="U6" t="n">
-        <v>1075</v>
+        <v>991</v>
       </c>
       <c r="V6" t="n">
-        <v>932</v>
+        <v>966</v>
       </c>
       <c r="W6" t="n">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="X6" t="n">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="Y6" t="n">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Z6" t="n">
-        <v>6161</v>
+        <v>8603</v>
       </c>
       <c r="AA6" t="n">
-        <v>1075</v>
+        <v>1412</v>
       </c>
       <c r="AB6" t="n">
-        <v>932</v>
+        <v>0</v>
       </c>
       <c r="AC6" t="n">
-        <v>175</v>
+        <v>288</v>
       </c>
       <c r="AD6" t="n">
-        <v>175</v>
+        <v>236</v>
       </c>
       <c r="AE6" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="AF6" t="n">
-        <v>3080</v>
+        <v>4301</v>
       </c>
       <c r="AG6" t="n">
-        <v>537</v>
+        <v>706</v>
       </c>
       <c r="AH6" t="n">
-        <v>466</v>
+        <v>0</v>
       </c>
       <c r="AI6" t="n">
-        <v>87</v>
+        <v>143</v>
       </c>
       <c r="AJ6" t="n">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="AK6" t="n">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>21,34535;31,6930;41,5301;22,200;32,200;42,200</t>
+          <t>21,36258;31,5961;41,6134;22,220;32,180;42,204</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>21,34535;31,6930;41,5301;22,200;32,200;42,200</t>
+          <t>21,51654;31,8493;41,0;22,330;32,270;42,0</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>21,17267;31,3465;41,2650;22,100;32,100;42,100</t>
+          <t>21,25827;31,4246;41,0;22,165;32,135;42,0</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>21,6161;31,1075;41,932;22,175;32,175;42,175</t>
+          <t>21,6039;31,991;41,966;22,192;32,157;42,178</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>21,6161;31,1075;41,932;22,175;32,175;42,175</t>
+          <t>21,8603;31,1412;41,0;22,288;32,236;42,0</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>21,3080;31,537;41,466;22,87;32,87;42,87</t>
+          <t>21,4301;31,706;41,0;22,143;32,117;42,0</t>
         </is>
       </c>
     </row>
@@ -5822,141 +5822,141 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>40232</v>
+        <v>43510</v>
       </c>
       <c r="C7" t="n">
-        <v>8076</v>
+        <v>7153</v>
       </c>
       <c r="D7" t="n">
-        <v>6877</v>
+        <v>7360</v>
       </c>
       <c r="E7" t="n">
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="F7" t="n">
-        <v>240</v>
+        <v>216</v>
       </c>
       <c r="G7" t="n">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="H7" t="n">
-        <v>40232</v>
+        <v>61985</v>
       </c>
       <c r="I7" t="n">
-        <v>8076</v>
+        <v>10192</v>
       </c>
       <c r="J7" t="n">
-        <v>6877</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>240</v>
+        <v>396</v>
       </c>
       <c r="L7" t="n">
-        <v>240</v>
+        <v>324</v>
       </c>
       <c r="M7" t="n">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>20116</v>
+        <v>30992</v>
       </c>
       <c r="O7" t="n">
-        <v>4038</v>
+        <v>5095</v>
       </c>
       <c r="P7" t="n">
-        <v>3438</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>120</v>
+        <v>198</v>
       </c>
       <c r="R7" t="n">
-        <v>120</v>
+        <v>162</v>
       </c>
       <c r="S7" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>6454</v>
+        <v>6463</v>
       </c>
       <c r="U7" t="n">
-        <v>1126</v>
+        <v>1061</v>
       </c>
       <c r="V7" t="n">
-        <v>984</v>
+        <v>1051</v>
       </c>
       <c r="W7" t="n">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="X7" t="n">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="Y7" t="n">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Z7" t="n">
-        <v>6454</v>
+        <v>9207</v>
       </c>
       <c r="AA7" t="n">
-        <v>1126</v>
+        <v>1512</v>
       </c>
       <c r="AB7" t="n">
-        <v>984</v>
+        <v>0</v>
       </c>
       <c r="AC7" t="n">
-        <v>210</v>
+        <v>346</v>
       </c>
       <c r="AD7" t="n">
-        <v>210</v>
+        <v>283</v>
       </c>
       <c r="AE7" t="n">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="AF7" t="n">
-        <v>3227</v>
+        <v>4603</v>
       </c>
       <c r="AG7" t="n">
-        <v>563</v>
+        <v>756</v>
       </c>
       <c r="AH7" t="n">
-        <v>492</v>
+        <v>0</v>
       </c>
       <c r="AI7" t="n">
-        <v>105</v>
+        <v>173</v>
       </c>
       <c r="AJ7" t="n">
-        <v>105</v>
+        <v>141</v>
       </c>
       <c r="AK7" t="n">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>21,40232;31,8076;41,6877;22,240;32,240;42,240</t>
+          <t>21,43510;31,7153;41,7360;22,264;32,216;42,245</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>21,40232;31,8076;41,6877;22,240;32,240;42,240</t>
+          <t>21,61985;31,10192;41,0;22,396;32,324;42,0</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>21,20116;31,4038;41,3438;22,120;32,120;42,120</t>
+          <t>21,30992;31,5095;41,0;22,198;32,162;42,0</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>21,6454;31,1126;41,984;22,210;32,210;42,210</t>
+          <t>21,6463;31,1061;41,1051;22,231;32,189;42,214</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
         <is>
-          <t>21,6454;31,1126;41,984;22,210;32,210;42,210</t>
+          <t>21,9207;31,1512;41,0;22,346;32,283;42,0</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
         <is>
-          <t>21,3227;31,563;41,492;22,105;32,105;42,105</t>
+          <t>21,4603;31,756;41,0;22,173;32,141;42,0</t>
         </is>
       </c>
     </row>
@@ -5965,141 +5965,141 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>45901</v>
+        <v>50761</v>
       </c>
       <c r="C8" t="n">
-        <v>9219</v>
+        <v>8346</v>
       </c>
       <c r="D8" t="n">
-        <v>8466</v>
+        <v>8587</v>
       </c>
       <c r="E8" t="n">
-        <v>280</v>
+        <v>308</v>
       </c>
       <c r="F8" t="n">
-        <v>280</v>
+        <v>252</v>
       </c>
       <c r="G8" t="n">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="H8" t="n">
-        <v>45901</v>
+        <v>72316</v>
       </c>
       <c r="I8" t="n">
-        <v>9219</v>
+        <v>11890</v>
       </c>
       <c r="J8" t="n">
-        <v>8466</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>280</v>
+        <v>462</v>
       </c>
       <c r="L8" t="n">
-        <v>280</v>
+        <v>378</v>
       </c>
       <c r="M8" t="n">
-        <v>280</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>22950</v>
+        <v>36157</v>
       </c>
       <c r="O8" t="n">
-        <v>4609</v>
+        <v>5945</v>
       </c>
       <c r="P8" t="n">
-        <v>4233</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>140</v>
+        <v>231</v>
       </c>
       <c r="R8" t="n">
-        <v>140</v>
+        <v>189</v>
       </c>
       <c r="S8" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>6762</v>
+        <v>6913</v>
       </c>
       <c r="U8" t="n">
-        <v>1179</v>
+        <v>1136</v>
       </c>
       <c r="V8" t="n">
-        <v>1038</v>
+        <v>1141</v>
       </c>
       <c r="W8" t="n">
-        <v>245</v>
+        <v>269</v>
       </c>
       <c r="X8" t="n">
-        <v>245</v>
+        <v>220</v>
       </c>
       <c r="Y8" t="n">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="Z8" t="n">
-        <v>6762</v>
+        <v>9849</v>
       </c>
       <c r="AA8" t="n">
-        <v>1179</v>
+        <v>1618</v>
       </c>
       <c r="AB8" t="n">
-        <v>1038</v>
+        <v>0</v>
       </c>
       <c r="AC8" t="n">
-        <v>245</v>
+        <v>404</v>
       </c>
       <c r="AD8" t="n">
-        <v>245</v>
+        <v>330</v>
       </c>
       <c r="AE8" t="n">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="AF8" t="n">
-        <v>3381</v>
+        <v>4924</v>
       </c>
       <c r="AG8" t="n">
-        <v>589</v>
+        <v>809</v>
       </c>
       <c r="AH8" t="n">
-        <v>519</v>
+        <v>0</v>
       </c>
       <c r="AI8" t="n">
-        <v>122</v>
+        <v>201</v>
       </c>
       <c r="AJ8" t="n">
-        <v>122</v>
+        <v>164</v>
       </c>
       <c r="AK8" t="n">
-        <v>122</v>
+        <v>0</v>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>21,45901;31,9219;41,8466;22,280;32,280;42,280</t>
+          <t>21,50761;31,8346;41,8587;22,308;32,252;42,286</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>21,45901;31,9219;41,8466;22,280;32,280;42,280</t>
+          <t>21,72316;31,11890;41,0;22,462;32,378;42,0</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>21,22950;31,4609;41,4233;22,140;32,140;42,140</t>
+          <t>21,36157;31,5945;41,0;22,231;32,189;42,0</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>21,6762;31,1179;41,1038;22,245;32,245;42,245</t>
+          <t>21,6913;31,1136;41,1141;22,269;32,220;42,250</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
         <is>
-          <t>21,6762;31,1179;41,1038;22,245;32,245;42,245</t>
+          <t>21,9849;31,1618;41,0;22,404;32,330;42,0</t>
         </is>
       </c>
       <c r="AQ8" t="inlineStr">
         <is>
-          <t>21,3381;31,589;41,519;22,122;32,122;42,122</t>
+          <t>21,4924;31,809;41,0;22,201;32,164;42,0</t>
         </is>
       </c>
     </row>
@@ -6108,141 +6108,141 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>51996</v>
+        <v>58013</v>
       </c>
       <c r="C9" t="n">
-        <v>10449</v>
+        <v>9538</v>
       </c>
       <c r="D9" t="n">
-        <v>9874</v>
+        <v>9814</v>
       </c>
       <c r="E9" t="n">
-        <v>315</v>
+        <v>346</v>
       </c>
       <c r="F9" t="n">
-        <v>315</v>
+        <v>283</v>
       </c>
       <c r="G9" t="n">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="H9" t="n">
-        <v>51996</v>
+        <v>82647</v>
       </c>
       <c r="I9" t="n">
-        <v>10449</v>
+        <v>13589</v>
       </c>
       <c r="J9" t="n">
-        <v>9874</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>315</v>
+        <v>519</v>
       </c>
       <c r="L9" t="n">
-        <v>315</v>
+        <v>425</v>
       </c>
       <c r="M9" t="n">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>25998</v>
+        <v>41323</v>
       </c>
       <c r="O9" t="n">
-        <v>5224</v>
+        <v>6794</v>
       </c>
       <c r="P9" t="n">
-        <v>4937</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>157</v>
+        <v>259</v>
       </c>
       <c r="R9" t="n">
-        <v>157</v>
+        <v>211</v>
       </c>
       <c r="S9" t="n">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>7353</v>
+        <v>7674</v>
       </c>
       <c r="U9" t="n">
-        <v>1283</v>
+        <v>1261</v>
       </c>
       <c r="V9" t="n">
-        <v>1144</v>
+        <v>1294</v>
       </c>
       <c r="W9" t="n">
-        <v>280</v>
+        <v>308</v>
       </c>
       <c r="X9" t="n">
-        <v>280</v>
+        <v>252</v>
       </c>
       <c r="Y9" t="n">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="Z9" t="n">
-        <v>7353</v>
+        <v>10932</v>
       </c>
       <c r="AA9" t="n">
-        <v>1283</v>
+        <v>1797</v>
       </c>
       <c r="AB9" t="n">
-        <v>1144</v>
+        <v>0</v>
       </c>
       <c r="AC9" t="n">
-        <v>280</v>
+        <v>462</v>
       </c>
       <c r="AD9" t="n">
-        <v>280</v>
+        <v>378</v>
       </c>
       <c r="AE9" t="n">
-        <v>280</v>
+        <v>0</v>
       </c>
       <c r="AF9" t="n">
-        <v>3676</v>
+        <v>5466</v>
       </c>
       <c r="AG9" t="n">
-        <v>641</v>
+        <v>898</v>
       </c>
       <c r="AH9" t="n">
-        <v>572</v>
+        <v>0</v>
       </c>
       <c r="AI9" t="n">
-        <v>140</v>
+        <v>231</v>
       </c>
       <c r="AJ9" t="n">
-        <v>140</v>
+        <v>189</v>
       </c>
       <c r="AK9" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>21,51996;31,10449;41,9874;22,315;32,315;42,315</t>
+          <t>21,58013;31,9538;41,9814;22,346;32,283;42,321</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>21,51996;31,10449;41,9874;22,315;32,315;42,315</t>
+          <t>21,82647;31,13589;41,0;22,519;32,425;42,0</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>21,25998;31,5224;41,4937;22,157;32,157;42,157</t>
+          <t>21,41323;31,6794;41,0;22,259;32,211;42,0</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>21,7353;31,1283;41,1144;22,280;32,280;42,280</t>
+          <t>21,7674;31,1261;41,1294;22,308;32,252;42,286</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
         <is>
-          <t>21,7353;31,1283;41,1144;22,280;32,280;42,280</t>
+          <t>21,10932;31,1797;41,0;22,462;32,378;42,0</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
         <is>
-          <t>21,3676;31,641;41,572;22,140;32,140;42,140</t>
+          <t>21,5466;31,898;41,0;22,231;32,189;42,0</t>
         </is>
       </c>
     </row>
@@ -6251,141 +6251,141 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>59017</v>
+        <v>65265</v>
       </c>
       <c r="C10" t="n">
-        <v>11860</v>
+        <v>10730</v>
       </c>
       <c r="D10" t="n">
-        <v>10875</v>
+        <v>11041</v>
       </c>
       <c r="E10" t="n">
-        <v>335</v>
+        <v>368</v>
       </c>
       <c r="F10" t="n">
-        <v>335</v>
+        <v>301</v>
       </c>
       <c r="G10" t="n">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="H10" t="n">
-        <v>59017</v>
+        <v>92978</v>
       </c>
       <c r="I10" t="n">
-        <v>11860</v>
+        <v>15288</v>
       </c>
       <c r="J10" t="n">
-        <v>10875</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>335</v>
+        <v>552</v>
       </c>
       <c r="L10" t="n">
-        <v>335</v>
+        <v>452</v>
       </c>
       <c r="M10" t="n">
-        <v>335</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>29508</v>
+        <v>46488</v>
       </c>
       <c r="O10" t="n">
-        <v>5930</v>
+        <v>7643</v>
       </c>
       <c r="P10" t="n">
-        <v>5437</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>167</v>
+        <v>275</v>
       </c>
       <c r="R10" t="n">
-        <v>167</v>
+        <v>225</v>
       </c>
       <c r="S10" t="n">
-        <v>167</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>7961</v>
+        <v>8309</v>
       </c>
       <c r="U10" t="n">
-        <v>1389</v>
+        <v>1366</v>
       </c>
       <c r="V10" t="n">
-        <v>1254</v>
+        <v>1418</v>
       </c>
       <c r="W10" t="n">
-        <v>315</v>
+        <v>346</v>
       </c>
       <c r="X10" t="n">
-        <v>315</v>
+        <v>283</v>
       </c>
       <c r="Y10" t="n">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="Z10" t="n">
-        <v>7961</v>
+        <v>11837</v>
       </c>
       <c r="AA10" t="n">
-        <v>1389</v>
+        <v>1946</v>
       </c>
       <c r="AB10" t="n">
-        <v>1254</v>
+        <v>0</v>
       </c>
       <c r="AC10" t="n">
-        <v>315</v>
+        <v>519</v>
       </c>
       <c r="AD10" t="n">
-        <v>315</v>
+        <v>425</v>
       </c>
       <c r="AE10" t="n">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="AF10" t="n">
-        <v>3980</v>
+        <v>5918</v>
       </c>
       <c r="AG10" t="n">
-        <v>694</v>
+        <v>973</v>
       </c>
       <c r="AH10" t="n">
-        <v>627</v>
+        <v>0</v>
       </c>
       <c r="AI10" t="n">
-        <v>157</v>
+        <v>259</v>
       </c>
       <c r="AJ10" t="n">
-        <v>157</v>
+        <v>211</v>
       </c>
       <c r="AK10" t="n">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>21,59017;31,11860;41,10875;22,335;32,335;42,335</t>
+          <t>21,65265;31,10730;41,11041;22,368;32,301;42,342</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>21,59017;31,11860;41,10875;22,335;32,335;42,335</t>
+          <t>21,92978;31,15288;41,0;22,552;32,452;42,0</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>21,29508;31,5930;41,5437;22,167;32,167;42,167</t>
+          <t>21,46488;31,7643;41,0;22,275;32,225;42,0</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>21,7961;31,1389;41,1254;22,315;32,315;42,315</t>
+          <t>21,8309;31,1366;41,1418;22,346;32,283;42,321</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>21,7961;31,1389;41,1254;22,315;32,315;42,315</t>
+          <t>21,11837;31,1946;41,0;22,519;32,425;42,0</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
         <is>
-          <t>21,3980;31,694;41,627;22,157;32,157;42,157</t>
+          <t>21,5918;31,973;41,0;22,259;32,211;42,0</t>
         </is>
       </c>
     </row>
@@ -6394,141 +6394,141 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>65924</v>
+        <v>72517</v>
       </c>
       <c r="C11" t="n">
-        <v>13248</v>
+        <v>11923</v>
       </c>
       <c r="D11" t="n">
-        <v>12002</v>
+        <v>12268</v>
       </c>
       <c r="E11" t="n">
-        <v>350</v>
+        <v>385</v>
       </c>
       <c r="F11" t="n">
-        <v>350</v>
+        <v>315</v>
       </c>
       <c r="G11" t="n">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="H11" t="n">
-        <v>65924</v>
+        <v>103309</v>
       </c>
       <c r="I11" t="n">
-        <v>13248</v>
+        <v>16987</v>
       </c>
       <c r="J11" t="n">
-        <v>12002</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>350</v>
+        <v>577</v>
       </c>
       <c r="L11" t="n">
-        <v>350</v>
+        <v>472</v>
       </c>
       <c r="M11" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>32962</v>
+        <v>51654</v>
       </c>
       <c r="O11" t="n">
-        <v>6624</v>
+        <v>8493</v>
       </c>
       <c r="P11" t="n">
-        <v>6001</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>175</v>
+        <v>288</v>
       </c>
       <c r="R11" t="n">
-        <v>175</v>
+        <v>236</v>
       </c>
       <c r="S11" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>8582</v>
+        <v>8958</v>
       </c>
       <c r="U11" t="n">
-        <v>1497</v>
+        <v>1473</v>
       </c>
       <c r="V11" t="n">
-        <v>1368</v>
+        <v>1547</v>
       </c>
       <c r="W11" t="n">
-        <v>350</v>
+        <v>385</v>
       </c>
       <c r="X11" t="n">
-        <v>350</v>
+        <v>315</v>
       </c>
       <c r="Y11" t="n">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="Z11" t="n">
-        <v>8582</v>
+        <v>12762</v>
       </c>
       <c r="AA11" t="n">
-        <v>1497</v>
+        <v>2098</v>
       </c>
       <c r="AB11" t="n">
-        <v>1368</v>
+        <v>0</v>
       </c>
       <c r="AC11" t="n">
-        <v>350</v>
+        <v>577</v>
       </c>
       <c r="AD11" t="n">
-        <v>350</v>
+        <v>472</v>
       </c>
       <c r="AE11" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="AF11" t="n">
-        <v>4291</v>
+        <v>6381</v>
       </c>
       <c r="AG11" t="n">
-        <v>748</v>
+        <v>1049</v>
       </c>
       <c r="AH11" t="n">
-        <v>684</v>
+        <v>0</v>
       </c>
       <c r="AI11" t="n">
-        <v>175</v>
+        <v>288</v>
       </c>
       <c r="AJ11" t="n">
-        <v>175</v>
+        <v>236</v>
       </c>
       <c r="AK11" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>21,65924;31,13248;41,12002;22,350;32,350;42,350</t>
+          <t>21,72517;31,11923;41,12268;22,385;32,315;42,357</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>21,65924;31,13248;41,12002;22,350;32,350;42,350</t>
+          <t>21,103309;31,16987;41,0;22,577;32,472;42,0</t>
         </is>
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>21,32962;31,6624;41,6001;22,175;32,175;42,175</t>
+          <t>21,51654;31,8493;41,0;22,288;32,236;42,0</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>21,8582;31,1497;41,1368;22,350;32,350;42,350</t>
+          <t>21,8958;31,1473;41,1547;22,385;32,315;42,357</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
         <is>
-          <t>21,8582;31,1497;41,1368;22,350;32,350;42,350</t>
+          <t>21,12762;31,2098;41,0;22,577;32,472;42,0</t>
         </is>
       </c>
       <c r="AQ11" t="inlineStr">
         <is>
-          <t>21,4291;31,748;41,684;22,175;32,175;42,175</t>
+          <t>21,6381;31,1049;41,0;22,288;32,236;42,0</t>
         </is>
       </c>
     </row>
@@ -6543,7 +6543,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS25"/>
+  <dimension ref="A1:AW25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6739,40 +6739,60 @@
       </c>
       <c r="AL1" t="inlineStr">
         <is>
+          <t>job_contact</t>
+        </is>
+      </c>
+      <c r="AM1" t="inlineStr">
+        <is>
+          <t>attr_addition</t>
+        </is>
+      </c>
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t>pvp_addition</t>
+        </is>
+      </c>
+      <c r="AO1" t="inlineStr">
+        <is>
           <t>基础战力</t>
         </is>
       </c>
-      <c r="AM1" t="inlineStr">
+      <c r="AP1" t="inlineStr">
         <is>
           <t>装备战力</t>
         </is>
       </c>
-      <c r="AN1" t="inlineStr">
+      <c r="AQ1" t="inlineStr">
         <is>
           <t>天赋战力</t>
         </is>
       </c>
-      <c r="AO1" t="inlineStr">
+      <c r="AR1" t="inlineStr">
         <is>
           <t>研究所战力</t>
         </is>
       </c>
-      <c r="AP1" t="inlineStr">
+      <c r="AS1" t="inlineStr">
         <is>
           <t>职阶战力</t>
         </is>
       </c>
-      <c r="AQ1" t="inlineStr">
+      <c r="AT1" t="inlineStr">
         <is>
           <t>机械核心战力</t>
         </is>
       </c>
-      <c r="AR1" t="inlineStr">
+      <c r="AU1" t="inlineStr">
         <is>
           <t>限制器战力</t>
         </is>
       </c>
-      <c r="AS1" t="inlineStr">
+      <c r="AV1" t="inlineStr">
+        <is>
+          <t>收集战力</t>
+        </is>
+      </c>
+      <c r="AW1" t="inlineStr">
         <is>
           <t>总战力</t>
         </is>
@@ -6812,7 +6832,7 @@
         <v>10</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L2" t="n">
         <v>89</v>
@@ -6839,13 +6859,13 @@
         </is>
       </c>
       <c r="T2" t="n">
-        <v>5502218.9728088</v>
+        <v>6511472.843273699</v>
       </c>
       <c r="U2" t="n">
-        <v>879458.7745539</v>
+        <v>1074904.56903035</v>
       </c>
       <c r="V2" t="n">
-        <v>739667.3539</v>
+        <v>920760.63694623</v>
       </c>
       <c r="W2" t="n">
         <v>3900</v>
@@ -6884,33 +6904,49 @@
         <v>10</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ2" t="inlineStr"/>
-      <c r="AK2" t="inlineStr"/>
+        <v>30</v>
+      </c>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>21,297383;31,48892;41,0</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>21,148523;31,24445;41,0</t>
+        </is>
+      </c>
       <c r="AL2" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM2" t="inlineStr"/>
+      <c r="AN2" t="inlineStr"/>
+      <c r="AO2" t="n">
         <v>11549505.988195</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="AP2" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN2" t="n">
+      <c r="AQ2" t="n">
         <v>1685980.51396071</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AR2" t="n">
         <v>481003.7</v>
       </c>
-      <c r="AP2" t="n">
-        <v>2007622</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>0</v>
-      </c>
       <c r="AS2" t="n">
-        <v>15838271.80215571</v>
+        <v>2931516.4790556</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>1847778.7</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>627443.0508126275</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>19237388.03202394</v>
       </c>
     </row>
     <row r="3">
@@ -6947,7 +6983,7 @@
         <v>10</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L3" t="n">
         <v>89</v>
@@ -6974,13 +7010,13 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>700069.1816876</v>
+        <v>814519.5636336501</v>
       </c>
       <c r="U3" t="n">
-        <v>125469.8654743</v>
+        <v>147609.72549295</v>
       </c>
       <c r="V3" t="n">
-        <v>99010.48669999999</v>
+        <v>119965.70731119</v>
       </c>
       <c r="W3" t="n">
         <v>3900</v>
@@ -7019,33 +7055,49 @@
         <v>10</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ3" t="inlineStr"/>
-      <c r="AK3" t="inlineStr"/>
+        <v>30</v>
+      </c>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>21,34618;31,5691;41,0</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>21,17290;31,2845;41,0</t>
+        </is>
+      </c>
       <c r="AL3" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM3" t="inlineStr"/>
+      <c r="AN3" t="inlineStr"/>
+      <c r="AO3" t="n">
         <v>1309667.787015</v>
       </c>
-      <c r="AM3" t="n">
+      <c r="AP3" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN3" t="n">
+      <c r="AQ3" t="n">
         <v>190748.11497027</v>
       </c>
-      <c r="AO3" t="n">
+      <c r="AR3" t="n">
         <v>68760.45</v>
       </c>
-      <c r="AP3" t="n">
-        <v>466485.6</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>0</v>
-      </c>
       <c r="AS3" t="n">
-        <v>2149821.55198527</v>
+        <v>571193.0229612</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>209403.35</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>73597.1616278775</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>2537529.486574348</v>
       </c>
     </row>
     <row r="4">
@@ -7082,7 +7134,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" t="n">
         <v>89</v>
@@ -7109,13 +7161,13 @@
         </is>
       </c>
       <c r="T4" t="n">
-        <v>7483.5436</v>
+        <v>7908.5436</v>
       </c>
       <c r="U4" t="n">
-        <v>1568.876</v>
+        <v>1653.876</v>
       </c>
       <c r="V4" t="n">
-        <v>636.3764</v>
+        <v>713.3764</v>
       </c>
       <c r="W4" t="n">
         <v>550</v>
@@ -7154,25 +7206,21 @@
         <v>0</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ4" t="inlineStr"/>
       <c r="AK4" t="inlineStr"/>
       <c r="AL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM4" t="inlineStr"/>
+      <c r="AN4" t="inlineStr"/>
+      <c r="AO4" t="n">
         <v>19198.5523</v>
       </c>
-      <c r="AM4" t="n">
+      <c r="AP4" t="n">
         <v>4498.9</v>
       </c>
-      <c r="AN4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>0</v>
-      </c>
       <c r="AQ4" t="n">
         <v>0</v>
       </c>
@@ -7180,7 +7228,19 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>23697.4523</v>
+        <v>0</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>1454.25</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>25151.7023</v>
       </c>
     </row>
     <row r="5">
@@ -7217,7 +7277,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L5" t="n">
         <v>89</v>
@@ -7244,13 +7304,13 @@
         </is>
       </c>
       <c r="T5" t="n">
-        <v>19841.4553</v>
+        <v>32337.4553</v>
       </c>
       <c r="U5" t="n">
-        <v>3918.6876</v>
+        <v>6429.6876</v>
       </c>
       <c r="V5" t="n">
-        <v>1960.546</v>
+        <v>4235.546</v>
       </c>
       <c r="W5" t="n">
         <v>638</v>
@@ -7289,25 +7349,21 @@
         <v>0</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AJ5" t="inlineStr"/>
       <c r="AK5" t="inlineStr"/>
       <c r="AL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM5" t="inlineStr"/>
+      <c r="AN5" t="inlineStr"/>
+      <c r="AO5" t="n">
         <v>48943.43924000001</v>
       </c>
-      <c r="AM5" t="n">
+      <c r="AP5" t="n">
         <v>11906.8</v>
       </c>
-      <c r="AN5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>0</v>
-      </c>
       <c r="AQ5" t="n">
         <v>0</v>
       </c>
@@ -7315,7 +7371,19 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>60850.23924000001</v>
+        <v>0</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>42903.15</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>103753.38924</v>
       </c>
     </row>
     <row r="6">
@@ -7352,7 +7420,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L6" t="n">
         <v>89</v>
@@ -7379,13 +7447,13 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>56140.6028</v>
+        <v>109714.6028</v>
       </c>
       <c r="U6" t="n">
-        <v>9998.5</v>
+        <v>20764.5</v>
       </c>
       <c r="V6" t="n">
-        <v>6262.298</v>
+        <v>16015.298</v>
       </c>
       <c r="W6" t="n">
         <v>900</v>
@@ -7424,33 +7492,41 @@
         <v>0</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ6" t="inlineStr"/>
       <c r="AK6" t="inlineStr"/>
       <c r="AL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM6" t="inlineStr"/>
+      <c r="AN6" t="inlineStr"/>
+      <c r="AO6" t="n">
         <v>117400.3663</v>
       </c>
-      <c r="AM6" t="n">
+      <c r="AP6" t="n">
         <v>32738.5</v>
       </c>
-      <c r="AN6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO6" t="n">
+      <c r="AQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR6" t="n">
         <v>6160.5</v>
       </c>
-      <c r="AP6" t="n">
+      <c r="AS6" t="n">
         <v>9406.6</v>
       </c>
-      <c r="AQ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>165705.9663</v>
+      <c r="AT6" t="n">
+        <v>183939.15</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>349645.1163</v>
       </c>
     </row>
     <row r="7">
@@ -7487,7 +7563,7 @@
         <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L7" t="n">
         <v>89</v>
@@ -7514,13 +7590,13 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>56140.6028</v>
+        <v>117125.60705232</v>
       </c>
       <c r="U7" t="n">
-        <v>9998.5</v>
+        <v>21984.4882</v>
       </c>
       <c r="V7" t="n">
-        <v>6262.298</v>
+        <v>17259.779192</v>
       </c>
       <c r="W7" t="n">
         <v>980</v>
@@ -7559,33 +7635,49 @@
         <v>1</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ7" t="inlineStr"/>
-      <c r="AK7" t="inlineStr"/>
+        <v>10</v>
+      </c>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>21,10570;31,1739;41,0</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>21,5285;31,869;41,0</t>
+        </is>
+      </c>
       <c r="AL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM7" t="inlineStr"/>
+      <c r="AN7" t="inlineStr"/>
+      <c r="AO7" t="n">
         <v>117400.3663</v>
       </c>
-      <c r="AM7" t="n">
+      <c r="AP7" t="n">
         <v>32738.5</v>
       </c>
-      <c r="AN7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO7" t="n">
+      <c r="AQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR7" t="n">
         <v>6160.5</v>
       </c>
-      <c r="AP7" t="n">
+      <c r="AS7" t="n">
         <v>9589.6</v>
       </c>
-      <c r="AQ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>165888.9663</v>
+      <c r="AT7" t="n">
+        <v>183939.15</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>22984.68968632</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>372812.80598632</v>
       </c>
     </row>
     <row r="8">
@@ -7622,7 +7714,7 @@
         <v>2</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L8" t="n">
         <v>89</v>
@@ -7649,13 +7741,13 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>56576.9780336</v>
+        <v>124973.98653824</v>
       </c>
       <c r="U8" t="n">
-        <v>10021.8235</v>
+        <v>23227.7999</v>
       </c>
       <c r="V8" t="n">
-        <v>6262.298</v>
+        <v>18505.7224138</v>
       </c>
       <c r="W8" t="n">
         <v>980</v>
@@ -7694,33 +7786,49 @@
         <v>2</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ8" t="inlineStr"/>
-      <c r="AK8" t="inlineStr"/>
+        <v>10</v>
+      </c>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t>21,21141;31,3480;41,0</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>21,10570;31,1739;41,0</t>
+        </is>
+      </c>
       <c r="AL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM8" t="inlineStr"/>
+      <c r="AN8" t="inlineStr"/>
+      <c r="AO8" t="n">
         <v>117400.3663</v>
       </c>
-      <c r="AM8" t="n">
+      <c r="AP8" t="n">
         <v>32738.5</v>
       </c>
-      <c r="AN8" t="n">
+      <c r="AQ8" t="n">
         <v>597.3073836</v>
       </c>
-      <c r="AO8" t="n">
+      <c r="AR8" t="n">
         <v>6160.5</v>
       </c>
-      <c r="AP8" t="n">
+      <c r="AS8" t="n">
         <v>9589.6</v>
       </c>
-      <c r="AQ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>166486.2736836</v>
+      <c r="AT8" t="n">
+        <v>183939.15</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>45978.78604399</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>396404.20972759</v>
       </c>
     </row>
     <row r="9">
@@ -7757,7 +7865,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L9" t="n">
         <v>89</v>
@@ -7784,31 +7892,31 @@
         </is>
       </c>
       <c r="T9" t="n">
-        <v>233417.1996</v>
+        <v>397377.701596</v>
       </c>
       <c r="U9" t="n">
-        <v>40699.288</v>
+        <v>71198.73088</v>
       </c>
       <c r="V9" t="n">
-        <v>30699.2155</v>
+        <v>57855.517655</v>
       </c>
       <c r="W9" t="n">
-        <v>2180</v>
+        <v>2190</v>
       </c>
       <c r="X9" t="n">
-        <v>720</v>
+        <v>730</v>
       </c>
       <c r="Y9" t="n">
         <v>15000</v>
       </c>
       <c r="Z9" t="n">
-        <v>720</v>
+        <v>730</v>
       </c>
       <c r="AA9" t="n">
-        <v>3060</v>
+        <v>3070</v>
       </c>
       <c r="AB9" t="n">
-        <v>1800</v>
+        <v>1840</v>
       </c>
       <c r="AC9" t="n">
         <v>0</v>
@@ -7829,33 +7937,41 @@
         <v>0</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ9" t="inlineStr"/>
       <c r="AK9" t="inlineStr"/>
       <c r="AL9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM9" t="inlineStr"/>
+      <c r="AN9" t="inlineStr"/>
+      <c r="AO9" t="n">
         <v>533499.525925</v>
       </c>
-      <c r="AM9" t="n">
+      <c r="AP9" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO9" t="n">
+      <c r="AQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP9" t="n">
-        <v>39130.6</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>0</v>
-      </c>
       <c r="AS9" t="n">
-        <v>701910.775925</v>
+        <v>44457.34525925</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>431001.05</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>94347.60000000001</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>1232586.17118425</v>
       </c>
     </row>
     <row r="10">
@@ -7892,7 +8008,7 @@
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L10" t="n">
         <v>89</v>
@@ -7919,31 +8035,31 @@
         </is>
       </c>
       <c r="T10" t="n">
-        <v>235383.4019952</v>
+        <v>464244.4900770899</v>
       </c>
       <c r="U10" t="n">
-        <v>40797.820864</v>
+        <v>81942.94129530879</v>
       </c>
       <c r="V10" t="n">
-        <v>30699.2155</v>
+        <v>65742.886410306</v>
       </c>
       <c r="W10" t="n">
-        <v>2180</v>
+        <v>2190</v>
       </c>
       <c r="X10" t="n">
-        <v>720</v>
+        <v>730</v>
       </c>
       <c r="Y10" t="n">
         <v>15000</v>
       </c>
       <c r="Z10" t="n">
-        <v>720</v>
+        <v>730</v>
       </c>
       <c r="AA10" t="n">
-        <v>3060</v>
+        <v>3070</v>
       </c>
       <c r="AB10" t="n">
-        <v>1800</v>
+        <v>1840</v>
       </c>
       <c r="AC10" t="n">
         <v>0</v>
@@ -7964,33 +8080,53 @@
         <v>1</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ10" t="inlineStr"/>
-      <c r="AK10" t="inlineStr"/>
+        <v>15</v>
+      </c>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>21,11411;31,1875;41,0</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>21,5705;31,937;41,0</t>
+        </is>
+      </c>
       <c r="AL10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM10" t="inlineStr"/>
+      <c r="AN10" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO10" t="n">
         <v>533499.525925</v>
       </c>
-      <c r="AM10" t="n">
+      <c r="AP10" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN10" t="n">
+      <c r="AQ10" t="n">
         <v>2646.0791568</v>
       </c>
-      <c r="AO10" t="n">
+      <c r="AR10" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP10" t="n">
-        <v>39130.6</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>0</v>
-      </c>
       <c r="AS10" t="n">
-        <v>704556.8550818</v>
+        <v>44457.34525925</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>431001.05</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>24630.88794866</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>253424.8435842701</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>1418940.38187398</v>
       </c>
     </row>
     <row r="11">
@@ -8027,7 +8163,7 @@
         <v>5</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L11" t="n">
         <v>89</v>
@@ -8054,31 +8190,31 @@
         </is>
       </c>
       <c r="T11" t="n">
-        <v>255045.4259472</v>
+        <v>580899.9477164191</v>
       </c>
       <c r="U11" t="n">
-        <v>41783.149504</v>
+        <v>97105.09799244801</v>
       </c>
       <c r="V11" t="n">
-        <v>30699.2155</v>
+        <v>78278.10630412161</v>
       </c>
       <c r="W11" t="n">
-        <v>2380</v>
+        <v>2390</v>
       </c>
       <c r="X11" t="n">
-        <v>720</v>
+        <v>730</v>
       </c>
       <c r="Y11" t="n">
         <v>15000</v>
       </c>
       <c r="Z11" t="n">
-        <v>720</v>
+        <v>730</v>
       </c>
       <c r="AA11" t="n">
-        <v>3060</v>
+        <v>3070</v>
       </c>
       <c r="AB11" t="n">
-        <v>1800</v>
+        <v>1840</v>
       </c>
       <c r="AC11" t="n">
         <v>0</v>
@@ -8099,33 +8235,53 @@
         <v>5</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ11" t="inlineStr"/>
-      <c r="AK11" t="inlineStr"/>
+        <v>15</v>
+      </c>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>21,57061;31,9379;41,0</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
+        <is>
+          <t>21,28530;31,4689;41,0</t>
+        </is>
+      </c>
       <c r="AL11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM11" t="inlineStr"/>
+      <c r="AN11" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO11" t="n">
         <v>533499.525925</v>
       </c>
-      <c r="AM11" t="n">
+      <c r="AP11" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN11" t="n">
+      <c r="AQ11" t="n">
         <v>29436.8707248</v>
       </c>
-      <c r="AO11" t="n">
+      <c r="AR11" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP11" t="n">
-        <v>39130.6</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR11" t="n">
-        <v>0</v>
-      </c>
       <c r="AS11" t="n">
-        <v>731347.6466497999</v>
+        <v>44457.34525925</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>431001.05</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>123244.21923895</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>421702.5739650096</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>1712622.23511301</v>
       </c>
     </row>
     <row r="12">
@@ -8162,7 +8318,7 @@
         <v>5</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L12" t="n">
         <v>89</v>
@@ -8189,31 +8345,31 @@
         </is>
       </c>
       <c r="T12" t="n">
-        <v>274707.4498992</v>
+        <v>683321.2560684144</v>
       </c>
       <c r="U12" t="n">
-        <v>42768.478144</v>
+        <v>107486.916690368</v>
       </c>
       <c r="V12" t="n">
-        <v>30699.2155</v>
+        <v>89243.14664135041</v>
       </c>
       <c r="W12" t="n">
-        <v>2580</v>
+        <v>2600</v>
       </c>
       <c r="X12" t="n">
-        <v>720</v>
+        <v>740</v>
       </c>
       <c r="Y12" t="n">
         <v>15000</v>
       </c>
       <c r="Z12" t="n">
-        <v>720</v>
+        <v>740</v>
       </c>
       <c r="AA12" t="n">
-        <v>3060</v>
+        <v>3080</v>
       </c>
       <c r="AB12" t="n">
-        <v>1800</v>
+        <v>1880</v>
       </c>
       <c r="AC12" t="n">
         <v>0</v>
@@ -8234,33 +8390,53 @@
         <v>5</v>
       </c>
       <c r="AI12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ12" t="inlineStr"/>
-      <c r="AK12" t="inlineStr"/>
+        <v>15</v>
+      </c>
+      <c r="AJ12" t="inlineStr">
+        <is>
+          <t>21,57061;31,9379;41,0</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
+        <is>
+          <t>21,28530;31,4689;41,0</t>
+        </is>
+      </c>
       <c r="AL12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM12" t="inlineStr"/>
+      <c r="AN12" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO12" t="n">
         <v>533499.525925</v>
       </c>
-      <c r="AM12" t="n">
+      <c r="AP12" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN12" t="n">
+      <c r="AQ12" t="n">
         <v>56227.6622928</v>
       </c>
-      <c r="AO12" t="n">
+      <c r="AR12" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP12" t="n">
-        <v>39130.6</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>0</v>
-      </c>
       <c r="AS12" t="n">
-        <v>758138.4382178</v>
+        <v>44457.34525925</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>431001.05</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>123244.21923895</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>632466.6217037183</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>1950177.074419719</v>
       </c>
     </row>
     <row r="13">
@@ -8297,7 +8473,7 @@
         <v>10</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L13" t="n">
         <v>89</v>
@@ -8324,31 +8500,31 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>294369.4738512</v>
+        <v>839248.9399109677</v>
       </c>
       <c r="U13" t="n">
-        <v>43753.806784</v>
+        <v>127881.112475456</v>
       </c>
       <c r="V13" t="n">
-        <v>30699.2155</v>
+        <v>106882.5105749807</v>
       </c>
       <c r="W13" t="n">
-        <v>2780</v>
+        <v>2830</v>
       </c>
       <c r="X13" t="n">
-        <v>720</v>
+        <v>770</v>
       </c>
       <c r="Y13" t="n">
         <v>15000</v>
       </c>
       <c r="Z13" t="n">
-        <v>720</v>
+        <v>770</v>
       </c>
       <c r="AA13" t="n">
-        <v>3060</v>
+        <v>3110</v>
       </c>
       <c r="AB13" t="n">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="AC13" t="n">
         <v>0</v>
@@ -8369,33 +8545,53 @@
         <v>10</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ13" t="inlineStr"/>
-      <c r="AK13" t="inlineStr"/>
+        <v>15</v>
+      </c>
+      <c r="AJ13" t="inlineStr">
+        <is>
+          <t>21,112763;31,18537;41,0</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
+        <is>
+          <t>21,56372;31,9268;41,0</t>
+        </is>
+      </c>
       <c r="AL13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM13" t="inlineStr"/>
+      <c r="AN13" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO13" t="n">
         <v>533499.525925</v>
       </c>
-      <c r="AM13" t="n">
+      <c r="AP13" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN13" t="n">
+      <c r="AQ13" t="n">
         <v>83018.4538608</v>
       </c>
-      <c r="AO13" t="n">
+      <c r="AR13" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP13" t="n">
-        <v>39130.6</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>0</v>
-      </c>
       <c r="AS13" t="n">
-        <v>784929.2297857999</v>
+        <v>44457.34525925</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>431001.05</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>243850.1336681625</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>883833.8930845407</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>2348941.051797753</v>
       </c>
     </row>
     <row r="14">
@@ -8432,7 +8628,7 @@
         <v>5</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L14" t="n">
         <v>89</v>
@@ -8459,31 +8655,31 @@
         </is>
       </c>
       <c r="T14" t="n">
-        <v>294369.4738512</v>
+        <v>931723.0168898432</v>
       </c>
       <c r="U14" t="n">
-        <v>43753.806784</v>
+        <v>136181.193572352</v>
       </c>
       <c r="V14" t="n">
-        <v>30699.2155</v>
+        <v>110426.1263884288</v>
       </c>
       <c r="W14" t="n">
-        <v>2700</v>
+        <v>2750</v>
       </c>
       <c r="X14" t="n">
-        <v>720</v>
+        <v>770</v>
       </c>
       <c r="Y14" t="n">
         <v>15000</v>
       </c>
       <c r="Z14" t="n">
-        <v>720</v>
+        <v>770</v>
       </c>
       <c r="AA14" t="n">
-        <v>3000</v>
+        <v>3050</v>
       </c>
       <c r="AB14" t="n">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="AC14" t="n">
         <v>0</v>
@@ -8504,33 +8700,53 @@
         <v>5</v>
       </c>
       <c r="AI14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ14" t="inlineStr"/>
-      <c r="AK14" t="inlineStr"/>
+        <v>15</v>
+      </c>
+      <c r="AJ14" t="inlineStr">
+        <is>
+          <t>21,57061;31,9379;41,0</t>
+        </is>
+      </c>
+      <c r="AK14" t="inlineStr">
+        <is>
+          <t>21,28530;31,4689;41,0</t>
+        </is>
+      </c>
       <c r="AL14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM14" t="inlineStr"/>
+      <c r="AN14" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO14" t="n">
         <v>533499.525925</v>
       </c>
-      <c r="AM14" t="n">
+      <c r="AP14" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN14" t="n">
+      <c r="AQ14" t="n">
         <v>83018.4538608</v>
       </c>
-      <c r="AO14" t="n">
+      <c r="AR14" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP14" t="n">
-        <v>38947.6</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>0</v>
-      </c>
       <c r="AS14" t="n">
-        <v>784746.2297857999</v>
+        <v>44274.34525925</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>431001.05</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>123244.21923895</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>1174560.234988538</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>2518878.479272538</v>
       </c>
     </row>
     <row r="15">
@@ -8567,7 +8783,7 @@
         <v>6</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L15" t="n">
         <v>89</v>
@@ -8594,31 +8810,31 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>436412.7933872</v>
+        <v>1467363.162639389</v>
       </c>
       <c r="U15" t="n">
-        <v>66569.33174920001</v>
+        <v>228491.1358964568</v>
       </c>
       <c r="V15" t="n">
-        <v>52080.7956</v>
+        <v>186840.0380673805</v>
       </c>
       <c r="W15" t="n">
-        <v>2860</v>
+        <v>2960</v>
       </c>
       <c r="X15" t="n">
-        <v>720</v>
+        <v>820</v>
       </c>
       <c r="Y15" t="n">
         <v>15000</v>
       </c>
       <c r="Z15" t="n">
-        <v>720</v>
+        <v>820</v>
       </c>
       <c r="AA15" t="n">
-        <v>3120</v>
+        <v>3220</v>
       </c>
       <c r="AB15" t="n">
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="AC15" t="n">
         <v>0</v>
@@ -8639,33 +8855,53 @@
         <v>6</v>
       </c>
       <c r="AI15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ15" t="inlineStr"/>
-      <c r="AK15" t="inlineStr"/>
+        <v>20</v>
+      </c>
+      <c r="AJ15" t="inlineStr">
+        <is>
+          <t>21,71696;31,11786;41,0</t>
+        </is>
+      </c>
+      <c r="AK15" t="inlineStr">
+        <is>
+          <t>21,35847;31,5892;41,0</t>
+        </is>
+      </c>
       <c r="AL15" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM15" t="inlineStr"/>
+      <c r="AN15" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO15" t="n">
         <v>824643.69466</v>
       </c>
-      <c r="AM15" t="n">
+      <c r="AP15" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN15" t="n">
+      <c r="AQ15" t="n">
         <v>123791.26249668</v>
       </c>
-      <c r="AO15" t="n">
+      <c r="AR15" t="n">
         <v>33220.2</v>
       </c>
-      <c r="AP15" t="n">
-        <v>111712</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR15" t="n">
-        <v>0</v>
-      </c>
       <c r="AS15" t="n">
-        <v>1207526.75715668</v>
+        <v>128188.3738932</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>788598.7</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>154850.686871766</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>1964350.701290733</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>4131803.219212378</v>
       </c>
     </row>
     <row r="16">
@@ -8702,7 +8938,7 @@
         <v>7</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L16" t="n">
         <v>89</v>
@@ -8729,31 +8965,31 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>436412.7933872</v>
+        <v>1503777.769022999</v>
       </c>
       <c r="U16" t="n">
-        <v>66569.33174920001</v>
+        <v>234177.7022933909</v>
       </c>
       <c r="V16" t="n">
-        <v>52080.7956</v>
+        <v>191694.4849798634</v>
       </c>
       <c r="W16" t="n">
-        <v>2940</v>
+        <v>3140</v>
       </c>
       <c r="X16" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="Y16" t="n">
         <v>15000</v>
       </c>
       <c r="Z16" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="AA16" t="n">
-        <v>3180</v>
+        <v>3380</v>
       </c>
       <c r="AB16" t="n">
-        <v>1800</v>
+        <v>2600</v>
       </c>
       <c r="AC16" t="n">
         <v>0</v>
@@ -8774,33 +9010,53 @@
         <v>7</v>
       </c>
       <c r="AI16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ16" t="inlineStr"/>
-      <c r="AK16" t="inlineStr"/>
+        <v>20</v>
+      </c>
+      <c r="AJ16" t="inlineStr">
+        <is>
+          <t>21,83646;31,13749;41,0</t>
+        </is>
+      </c>
+      <c r="AK16" t="inlineStr">
+        <is>
+          <t>21,41822;31,6874;41,0</t>
+        </is>
+      </c>
       <c r="AL16" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM16" t="inlineStr"/>
+      <c r="AN16" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO16" t="n">
         <v>824643.69466</v>
       </c>
-      <c r="AM16" t="n">
+      <c r="AP16" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN16" t="n">
+      <c r="AQ16" t="n">
         <v>123791.26249668</v>
       </c>
-      <c r="AO16" t="n">
+      <c r="AR16" t="n">
         <v>33220.2</v>
       </c>
-      <c r="AP16" t="n">
-        <v>111895</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR16" t="n">
-        <v>0</v>
-      </c>
       <c r="AS16" t="n">
-        <v>1207709.75715668</v>
+        <v>128371.3738932</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>788598.7</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>180670.119509972</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>2043296.252921759</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>4236751.203481611</v>
       </c>
     </row>
     <row r="17">
@@ -8837,7 +9093,7 @@
         <v>8</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L17" t="n">
         <v>89</v>
@@ -8864,31 +9120,31 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>1076298.2950588</v>
+        <v>2728064.888981318</v>
       </c>
       <c r="U17" t="n">
-        <v>169495.0339004</v>
+        <v>422587.8115585261</v>
       </c>
       <c r="V17" t="n">
-        <v>150918.7</v>
+        <v>371202.06815984</v>
       </c>
       <c r="W17" t="n">
-        <v>3260</v>
+        <v>3460</v>
       </c>
       <c r="X17" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="Y17" t="n">
         <v>15000</v>
       </c>
       <c r="Z17" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="AA17" t="n">
-        <v>3420</v>
+        <v>3620</v>
       </c>
       <c r="AB17" t="n">
-        <v>1800</v>
+        <v>2600</v>
       </c>
       <c r="AC17" t="n">
         <v>0</v>
@@ -8909,33 +9165,53 @@
         <v>8</v>
       </c>
       <c r="AI17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ17" t="inlineStr"/>
-      <c r="AK17" t="inlineStr"/>
+        <v>25</v>
+      </c>
+      <c r="AJ17" t="inlineStr">
+        <is>
+          <t>21,110822;31,18222;41,0</t>
+        </is>
+      </c>
+      <c r="AK17" t="inlineStr">
+        <is>
+          <t>21,55383;31,9094;41,0</t>
+        </is>
+      </c>
       <c r="AL17" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM17" t="inlineStr"/>
+      <c r="AN17" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO17" t="n">
         <v>1898377.45922</v>
       </c>
-      <c r="AM17" t="n">
+      <c r="AP17" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN17" t="n">
+      <c r="AQ17" t="n">
         <v>272905.94475156</v>
       </c>
-      <c r="AO17" t="n">
+      <c r="AR17" t="n">
         <v>155697.55</v>
       </c>
-      <c r="AP17" t="n">
-        <v>685692</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR17" t="n">
-        <v>0</v>
-      </c>
       <c r="AS17" t="n">
-        <v>3126832.55397156</v>
+        <v>761594.0983688</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>1259990.85</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>239665.449016196</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>3091577.729297672</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>7793968.680654229</v>
       </c>
     </row>
     <row r="18">
@@ -8972,7 +9248,7 @@
         <v>10</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L18" t="n">
         <v>89</v>
@@ -8999,31 +9275,31 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>5502218.9728088</v>
+        <v>9740718.012316775</v>
       </c>
       <c r="U18" t="n">
-        <v>879458.7745539</v>
+        <v>1470286.908175931</v>
       </c>
       <c r="V18" t="n">
-        <v>739667.3539</v>
+        <v>1252572.136105885</v>
       </c>
       <c r="W18" t="n">
-        <v>3900</v>
+        <v>4100</v>
       </c>
       <c r="X18" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="Y18" t="n">
         <v>15000</v>
       </c>
       <c r="Z18" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="AA18" t="n">
-        <v>3900</v>
+        <v>4100</v>
       </c>
       <c r="AB18" t="n">
-        <v>1800</v>
+        <v>2600</v>
       </c>
       <c r="AC18" t="n">
         <v>0</v>
@@ -9044,33 +9320,53 @@
         <v>10</v>
       </c>
       <c r="AI18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ18" t="inlineStr"/>
-      <c r="AK18" t="inlineStr"/>
+        <v>30</v>
+      </c>
+      <c r="AJ18" t="inlineStr">
+        <is>
+          <t>21,297383;31,48892;41,0</t>
+        </is>
+      </c>
+      <c r="AK18" t="inlineStr">
+        <is>
+          <t>21,148523;31,24445;41,0</t>
+        </is>
+      </c>
       <c r="AL18" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM18" t="inlineStr"/>
+      <c r="AN18" t="inlineStr">
+        <is>
+          <t>1,1,3000;2,1,3000;3,1,3000;4,1,3000;1,2,3000;2,2,3000;3,2,3000;4,2,3000;5,1,3000;5,2,3000</t>
+        </is>
+      </c>
+      <c r="AO18" t="n">
         <v>11549505.988195</v>
       </c>
-      <c r="AM18" t="n">
+      <c r="AP18" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN18" t="n">
+      <c r="AQ18" t="n">
         <v>1685980.51396071</v>
       </c>
-      <c r="AO18" t="n">
+      <c r="AR18" t="n">
         <v>481003.7</v>
       </c>
-      <c r="AP18" t="n">
-        <v>2007622</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR18" t="n">
-        <v>0</v>
-      </c>
       <c r="AS18" t="n">
-        <v>15838271.80215571</v>
+        <v>2931516.4790556</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>1847778.7</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>627443.0508126275</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>7867699.429315602</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>27105087.46133954</v>
       </c>
     </row>
     <row r="19">
@@ -9107,7 +9403,7 @@
         <v>10</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L19" t="n">
         <v>89</v>
@@ -9134,31 +9430,31 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>9081511.2608604</v>
+        <v>16655348.83691799</v>
       </c>
       <c r="U19" t="n">
-        <v>1453876.6434581</v>
+        <v>2624818.048556971</v>
       </c>
       <c r="V19" t="n">
-        <v>1216324.8948</v>
+        <v>2221903.213405008</v>
       </c>
       <c r="W19" t="n">
-        <v>4940</v>
+        <v>5140</v>
       </c>
       <c r="X19" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="Y19" t="n">
         <v>15000</v>
       </c>
       <c r="Z19" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="AA19" t="n">
-        <v>4680</v>
+        <v>4880</v>
       </c>
       <c r="AB19" t="n">
-        <v>1800</v>
+        <v>2600</v>
       </c>
       <c r="AC19" t="n">
         <v>0</v>
@@ -9179,33 +9475,53 @@
         <v>10</v>
       </c>
       <c r="AI19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ19" t="inlineStr"/>
-      <c r="AK19" t="inlineStr"/>
+        <v>30</v>
+      </c>
+      <c r="AJ19" t="inlineStr">
+        <is>
+          <t>21,297383;31,48892;41,0</t>
+        </is>
+      </c>
+      <c r="AK19" t="inlineStr">
+        <is>
+          <t>21,148523;31,24445;41,0</t>
+        </is>
+      </c>
       <c r="AL19" t="n">
+        <v>150</v>
+      </c>
+      <c r="AM19" t="inlineStr"/>
+      <c r="AN19" t="inlineStr">
+        <is>
+          <t>1,1,5000;2,1,5000;3,1,5000;4,1,5000;1,2,5000;2,2,5000;3,2,5000;4,2,5000;5,1,5000;5,2,5000</t>
+        </is>
+      </c>
+      <c r="AO19" t="n">
         <v>18736169.26253</v>
       </c>
-      <c r="AM19" t="n">
+      <c r="AP19" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN19" t="n">
+      <c r="AQ19" t="n">
         <v>2741634.58329129</v>
       </c>
-      <c r="AO19" t="n">
+      <c r="AR19" t="n">
         <v>1061573.2</v>
       </c>
-      <c r="AP19" t="n">
-        <v>3470670.6</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR19" t="n">
-        <v>0</v>
-      </c>
       <c r="AS19" t="n">
-        <v>26124207.24582129</v>
+        <v>6280972.2393795</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>1847778.7</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>627443.0508126275</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>16152285.21302647</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>47562015.84903988</v>
       </c>
     </row>
     <row r="20">
@@ -9242,7 +9558,7 @@
         <v>1</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L20" t="n">
         <v>89</v>
@@ -9269,13 +9585,13 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>204961.2823004</v>
+        <v>215429.66557386</v>
       </c>
       <c r="U20" t="n">
-        <v>41023.346918</v>
+        <v>43009.05586659999</v>
       </c>
       <c r="V20" t="n">
-        <v>26539.5628</v>
+        <v>28227.5112698</v>
       </c>
       <c r="W20" t="n">
         <v>980</v>
@@ -9314,33 +9630,49 @@
         <v>1</v>
       </c>
       <c r="AI20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ20" t="inlineStr"/>
-      <c r="AK20" t="inlineStr"/>
+        <v>10</v>
+      </c>
+      <c r="AJ20" t="inlineStr">
+        <is>
+          <t>21,6368;31,1112;41,0</t>
+        </is>
+      </c>
+      <c r="AK20" t="inlineStr">
+        <is>
+          <t>21,3175;31,550;41,0</t>
+        </is>
+      </c>
       <c r="AL20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM20" t="inlineStr"/>
+      <c r="AN20" t="inlineStr"/>
+      <c r="AO20" t="n">
         <v>562134.5642</v>
       </c>
-      <c r="AM20" t="n">
+      <c r="AP20" t="n">
         <v>32738.5</v>
       </c>
-      <c r="AN20" t="n">
+      <c r="AQ20" t="n">
         <v>2822.5979346</v>
       </c>
-      <c r="AO20" t="n">
+      <c r="AR20" t="n">
         <v>14696.9</v>
       </c>
-      <c r="AP20" t="n">
+      <c r="AS20" t="n">
         <v>32982.8</v>
       </c>
-      <c r="AQ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>645375.3621345999</v>
+      <c r="AT20" t="n">
+        <v>20841.55</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>13033.92872015</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>679250.84085475</v>
       </c>
     </row>
     <row r="21">
@@ -9377,7 +9709,7 @@
         <v>2</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L21" t="n">
         <v>89</v>
@@ -9404,13 +9736,13 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>280485.7534704</v>
+        <v>298868.01242484</v>
       </c>
       <c r="U21" t="n">
-        <v>50353.8577152</v>
+        <v>53873.16747392</v>
       </c>
       <c r="V21" t="n">
-        <v>35393.9306</v>
+        <v>38466.29201326</v>
       </c>
       <c r="W21" t="n">
         <v>1460</v>
@@ -9449,33 +9781,49 @@
         <v>2</v>
       </c>
       <c r="AI21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ21" t="inlineStr"/>
-      <c r="AK21" t="inlineStr"/>
+        <v>13</v>
+      </c>
+      <c r="AJ21" t="inlineStr">
+        <is>
+          <t>21,8502;31,1438;41,0</t>
+        </is>
+      </c>
+      <c r="AK21" t="inlineStr">
+        <is>
+          <t>21,4240;31,718;41,0</t>
+        </is>
+      </c>
       <c r="AL21" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM21" t="inlineStr"/>
+      <c r="AN21" t="inlineStr"/>
+      <c r="AO21" t="n">
         <v>667914.1295100001</v>
       </c>
-      <c r="AM21" t="n">
+      <c r="AP21" t="n">
         <v>49107.75</v>
       </c>
-      <c r="AN21" t="n">
+      <c r="AQ21" t="n">
         <v>36561.64314528</v>
       </c>
-      <c r="AO21" t="n">
+      <c r="AR21" t="n">
         <v>19028.1</v>
       </c>
-      <c r="AP21" t="n">
-        <v>65965.60000000001</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR21" t="n">
-        <v>0</v>
-      </c>
       <c r="AS21" t="n">
-        <v>838577.22265528</v>
+        <v>72636.4912951</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>36161.45</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>17499.233120753</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>898908.797071133</v>
       </c>
     </row>
     <row r="22">
@@ -9512,7 +9860,7 @@
         <v>5</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L22" t="n">
         <v>89</v>
@@ -9539,31 +9887,31 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>407594.6577488</v>
+        <v>545674.5604368513</v>
       </c>
       <c r="U22" t="n">
-        <v>65878.1743499</v>
+        <v>86413.81322222932</v>
       </c>
       <c r="V22" t="n">
-        <v>51070.1785</v>
+        <v>68590.30450993319</v>
       </c>
       <c r="W22" t="n">
-        <v>2580</v>
+        <v>2630</v>
       </c>
       <c r="X22" t="n">
-        <v>720</v>
+        <v>770</v>
       </c>
       <c r="Y22" t="n">
         <v>15000</v>
       </c>
       <c r="Z22" t="n">
-        <v>720</v>
+        <v>770</v>
       </c>
       <c r="AA22" t="n">
-        <v>3060</v>
+        <v>3110</v>
       </c>
       <c r="AB22" t="n">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="AC22" t="n">
         <v>0</v>
@@ -9584,33 +9932,53 @@
         <v>5</v>
       </c>
       <c r="AI22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ22" t="inlineStr"/>
-      <c r="AK22" t="inlineStr"/>
+        <v>15</v>
+      </c>
+      <c r="AJ22" t="inlineStr">
+        <is>
+          <t>21,15876;31,2606;41,0</t>
+        </is>
+      </c>
+      <c r="AK22" t="inlineStr">
+        <is>
+          <t>21,7912;31,1298;41,0</t>
+        </is>
+      </c>
       <c r="AL22" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM22" t="inlineStr"/>
+      <c r="AN22" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO22" t="n">
         <v>848298.018145</v>
       </c>
-      <c r="AM22" t="n">
+      <c r="AP22" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN22" t="n">
+      <c r="AQ22" t="n">
         <v>86304.86899311001</v>
       </c>
-      <c r="AO22" t="n">
+      <c r="AR22" t="n">
         <v>23382.7</v>
       </c>
-      <c r="AP22" t="n">
-        <v>95470.39999999999</v>
-      </c>
-      <c r="AQ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR22" t="n">
-        <v>0</v>
-      </c>
       <c r="AS22" t="n">
-        <v>1167615.58713811</v>
+        <v>103945.13018145</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>48844.15</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>33136.714275664</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>290660.9410071255</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>1548732.122602349</v>
       </c>
     </row>
     <row r="23">
@@ -9647,7 +10015,7 @@
         <v>7</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L23" t="n">
         <v>89</v>
@@ -9674,31 +10042,31 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>482198.2105944</v>
+        <v>715595.5240043758</v>
       </c>
       <c r="U23" t="n">
-        <v>76449.9300316</v>
+        <v>114360.890596254</v>
       </c>
       <c r="V23" t="n">
-        <v>58766.7442</v>
+        <v>88648.522753527</v>
       </c>
       <c r="W23" t="n">
-        <v>2940</v>
+        <v>3140</v>
       </c>
       <c r="X23" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="Y23" t="n">
         <v>15000</v>
       </c>
       <c r="Z23" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="AA23" t="n">
-        <v>3180</v>
+        <v>3380</v>
       </c>
       <c r="AB23" t="n">
-        <v>1800</v>
+        <v>2600</v>
       </c>
       <c r="AC23" t="n">
         <v>0</v>
@@ -9719,33 +10087,53 @@
         <v>7</v>
       </c>
       <c r="AI23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ23" t="inlineStr"/>
-      <c r="AK23" t="inlineStr"/>
+        <v>20</v>
+      </c>
+      <c r="AJ23" t="inlineStr">
+        <is>
+          <t>21,20913;31,3431;41,0</t>
+        </is>
+      </c>
+      <c r="AK23" t="inlineStr">
+        <is>
+          <t>21,10428;31,1710;41,0</t>
+        </is>
+      </c>
       <c r="AL23" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM23" t="inlineStr"/>
+      <c r="AN23" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO23" t="n">
         <v>927138.87363</v>
       </c>
-      <c r="AM23" t="n">
+      <c r="AP23" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN23" t="n">
+      <c r="AQ23" t="n">
         <v>138129.38333244</v>
       </c>
-      <c r="AO23" t="n">
+      <c r="AR23" t="n">
         <v>30363.65</v>
       </c>
-      <c r="AP23" t="n">
-        <v>150324</v>
-      </c>
-      <c r="AQ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR23" t="n">
-        <v>0</v>
-      </c>
       <c r="AS23" t="n">
-        <v>1360115.50696244</v>
+        <v>168850.2774726</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>89371.45000000001</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>43852.99520229</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>517452.4453139787</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>2029318.674951309</v>
       </c>
     </row>
     <row r="24">
@@ -9782,7 +10170,7 @@
         <v>8</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L24" t="n">
         <v>89</v>
@@ -9809,31 +10197,31 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>553261.7277200001</v>
+        <v>893086.289691208</v>
       </c>
       <c r="U24" t="n">
-        <v>92571.6667298</v>
+        <v>148923.6924693417</v>
       </c>
       <c r="V24" t="n">
-        <v>72072.14110000001</v>
+        <v>117266.5016007012</v>
       </c>
       <c r="W24" t="n">
-        <v>3260</v>
+        <v>3460</v>
       </c>
       <c r="X24" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="Y24" t="n">
         <v>15000</v>
       </c>
       <c r="Z24" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="AA24" t="n">
-        <v>3420</v>
+        <v>3620</v>
       </c>
       <c r="AB24" t="n">
-        <v>1800</v>
+        <v>2600</v>
       </c>
       <c r="AC24" t="n">
         <v>0</v>
@@ -9854,33 +10242,53 @@
         <v>8</v>
       </c>
       <c r="AI24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ24" t="inlineStr"/>
-      <c r="AK24" t="inlineStr"/>
+        <v>25</v>
+      </c>
+      <c r="AJ24" t="inlineStr">
+        <is>
+          <t>21,25147;31,4133;41,0</t>
+        </is>
+      </c>
+      <c r="AK24" t="inlineStr">
+        <is>
+          <t>21,12573;31,2066;41,0</t>
+        </is>
+      </c>
       <c r="AL24" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM24" t="inlineStr"/>
+      <c r="AN24" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO24" t="n">
         <v>1051498.819665</v>
       </c>
-      <c r="AM24" t="n">
+      <c r="AP24" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN24" t="n">
+      <c r="AQ24" t="n">
         <v>155114.36981562</v>
       </c>
-      <c r="AO24" t="n">
+      <c r="AR24" t="n">
         <v>43173.05</v>
       </c>
-      <c r="AP24" t="n">
-        <v>255711.2</v>
-      </c>
-      <c r="AQ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR24" t="n">
-        <v>0</v>
-      </c>
       <c r="AS24" t="n">
-        <v>1619657.03948062</v>
+        <v>297738.1527866</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>142791.5</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>53091.669120063</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>753010.9905464142</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>2610578.151933698</v>
       </c>
     </row>
     <row r="25">
@@ -9917,7 +10325,7 @@
         <v>10</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L25" t="n">
         <v>89</v>
@@ -9944,31 +10352,31 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>700069.1816876</v>
+        <v>1515652.342686871</v>
       </c>
       <c r="U25" t="n">
-        <v>125469.8654743</v>
+        <v>255432.0729452</v>
       </c>
       <c r="V25" t="n">
-        <v>99010.48669999999</v>
+        <v>205768.4916500472</v>
       </c>
       <c r="W25" t="n">
-        <v>3900</v>
+        <v>4100</v>
       </c>
       <c r="X25" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="Y25" t="n">
         <v>15000</v>
       </c>
       <c r="Z25" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="AA25" t="n">
-        <v>3900</v>
+        <v>4100</v>
       </c>
       <c r="AB25" t="n">
-        <v>1800</v>
+        <v>2600</v>
       </c>
       <c r="AC25" t="n">
         <v>0</v>
@@ -9989,33 +10397,53 @@
         <v>10</v>
       </c>
       <c r="AI25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ25" t="inlineStr"/>
-      <c r="AK25" t="inlineStr"/>
+        <v>30</v>
+      </c>
+      <c r="AJ25" t="inlineStr">
+        <is>
+          <t>21,34618;31,5691;41,0</t>
+        </is>
+      </c>
+      <c r="AK25" t="inlineStr">
+        <is>
+          <t>21,17290;31,2845;41,0</t>
+        </is>
+      </c>
       <c r="AL25" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM25" t="inlineStr"/>
+      <c r="AN25" t="inlineStr">
+        <is>
+          <t>1,1,3000;2,1,3000;3,1,3000;4,1,3000;1,2,3000;2,2,3000;3,2,3000;4,2,3000;5,1,3000;5,2,3000</t>
+        </is>
+      </c>
+      <c r="AO25" t="n">
         <v>1309667.787015</v>
       </c>
-      <c r="AM25" t="n">
+      <c r="AP25" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN25" t="n">
+      <c r="AQ25" t="n">
         <v>190748.11497027</v>
       </c>
-      <c r="AO25" t="n">
+      <c r="AR25" t="n">
         <v>68760.45</v>
       </c>
-      <c r="AP25" t="n">
-        <v>466485.6</v>
-      </c>
-      <c r="AQ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR25" t="n">
-        <v>0</v>
-      </c>
       <c r="AS25" t="n">
-        <v>2149821.55198527</v>
+        <v>571193.0229612</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>209403.35</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>73597.1616278775</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>1940872.986422175</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>4478402.472996523</v>
       </c>
     </row>
   </sheetData>
